--- a/TestCases/Common.xlsx
+++ b/TestCases/Common.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23880" windowHeight="9960" tabRatio="891" activeTab="4"/>
+    <workbookView windowWidth="23910" windowHeight="10380" tabRatio="891"/>
   </bookViews>
   <sheets>
     <sheet name="GrowMobileSelfServeTest" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464">
   <si>
     <t>keyword</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>OkBtn</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>Refresh browser</t>
@@ -584,6 +587,12 @@
     <t>StartDate</t>
   </si>
   <si>
+    <t>generateuniquestring</t>
+  </si>
+  <si>
+    <t>5 | var</t>
+  </si>
+  <si>
     <t>DatePickerUI</t>
   </si>
   <si>
@@ -734,9 +743,6 @@
     <t>ApplyBtn</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Verify details on Summary Page : Budget :Total Budget : '$1,000'</t>
   </si>
   <si>
@@ -1379,7 +1385,7 @@
     <t>Budget</t>
   </si>
   <si>
-    <t>TFT_QA1</t>
+    <t>TFT_QA_{$var}</t>
   </si>
   <si>
     <t>Leadbolt</t>
@@ -1392,9 +1398,6 @@
   </si>
   <si>
     <t>200</t>
-  </si>
-  <si>
-    <t>TFT_QA2</t>
   </si>
   <si>
     <t>Chartboost</t>
@@ -1611,6 +1614,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="52"/>
@@ -1619,15 +1642,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1640,56 +1681,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="58"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -1710,14 +1705,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1731,40 +1757,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="Calibri"/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -1802,14 +1805,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="31"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="22"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="20"/>
-        <bgColor indexed="36"/>
+        <fgColor indexed="46"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="9"/>
       </patternFill>
     </fill>
     <fill>
@@ -1820,50 +1835,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="49"/>
         <bgColor indexed="40"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="52"/>
+        <fgColor indexed="29"/>
+        <bgColor indexed="45"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="24"/>
+        <fgColor indexed="31"/>
+        <bgColor indexed="22"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="56"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="29"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="31"/>
       </patternFill>
     </fill>
     <fill>
@@ -1874,20 +1865,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="51"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="41"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="22"/>
+        <fgColor indexed="45"/>
+        <bgColor indexed="29"/>
       </patternFill>
     </fill>
     <fill>
@@ -1904,20 +1889,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="41"/>
+        <fgColor indexed="51"/>
+        <bgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="9"/>
+        <fgColor indexed="53"/>
+        <bgColor indexed="52"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="45"/>
+        <fgColor indexed="20"/>
+        <bgColor indexed="36"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="56"/>
       </patternFill>
     </fill>
     <fill>
@@ -1932,6 +1929,12 @@
         <bgColor indexed="21"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1939,6 +1942,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1960,43 +1978,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2019,23 +2002,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
+      <bottom style="medium">
+        <color indexed="30"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2048,15 +2031,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2068,7 +2071,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2077,166 +2080,166 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2245,16 +2248,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2884,12 +2887,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:IV87"/>
+  <dimension ref="A1:IV88"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3501,18 +3504,19 @@
       <c r="J18" s="10"/>
     </row>
     <row r="19" customFormat="1" ht="15.75" spans="1:10">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="64"/>
+      <c r="I19" s="66"/>
       <c r="J19" s="59" t="s">
         <v>31</v>
       </c>
@@ -3520,39 +3524,37 @@
     <row r="20" customFormat="1" ht="15.75" spans="1:10">
       <c r="A20" s="61"/>
       <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="59" t="s">
+      <c r="C20" s="59"/>
+      <c r="D20" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" s="59"/>
+      <c r="H20" s="64"/>
+      <c r="J20" s="59" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" customFormat="1" ht="15.75" spans="1:10">
       <c r="A21" s="61"/>
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
-      <c r="D21" s="59" t="s">
-        <v>60</v>
-      </c>
+      <c r="D21" s="59"/>
       <c r="E21" s="59" t="s">
         <v>27</v>
       </c>
       <c r="F21" s="59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="64"/>
+        <v>59</v>
+      </c>
+      <c r="H21" s="64" t="s">
+        <v>60</v>
+      </c>
       <c r="J21" s="59"/>
     </row>
     <row r="22" customFormat="1" ht="15.75" spans="1:10">
@@ -3563,160 +3565,120 @@
         <v>61</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F22" s="59" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G22" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="59" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H22" s="64"/>
+      <c r="J22" s="59"/>
     </row>
     <row r="23" customFormat="1" ht="15.75" spans="1:10">
       <c r="A23" s="61"/>
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="62" t="s">
+      <c r="D23" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="70" t="s">
         <v>66</v>
-      </c>
-      <c r="G23" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="64" t="s">
-        <v>67</v>
       </c>
       <c r="J23" s="59" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="31.5" spans="1:10">
+    <row r="24" customFormat="1" ht="15.75" spans="1:10">
       <c r="A24" s="61"/>
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
       <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
+      <c r="E24" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="62" t="s">
+        <v>67</v>
+      </c>
       <c r="G24" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="64"/>
+        <v>59</v>
+      </c>
+      <c r="H24" s="64" t="s">
+        <v>68</v>
+      </c>
       <c r="J24" s="59" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="31.5" spans="1:10">
       <c r="A25" s="61"/>
       <c r="B25" s="61"/>
       <c r="C25" s="61"/>
-      <c r="D25" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="59" t="s">
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="64"/>
+      <c r="J25" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="31.5" spans="1:10">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="E26" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="63" t="s">
+      <c r="F26" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="70" t="s">
+      <c r="G26" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="59" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" spans="4:10">
-      <c r="D26" s="10" t="s">
+      <c r="H26" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="9" t="s">
+    </row>
+    <row r="27" ht="15.75" spans="4:10">
+      <c r="D27" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="49" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I26" s="66"/>
-      <c r="J26" s="10"/>
-    </row>
-    <row r="27" s="48" customFormat="1" ht="15.75" spans="1:48">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="56" t="s">
+      <c r="H27" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="29"/>
-      <c r="I27"/>
-      <c r="J27" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="66"/>
-      <c r="AB27" s="66"/>
-      <c r="AC27" s="66"/>
-      <c r="AD27" s="66"/>
-      <c r="AE27" s="66"/>
-      <c r="AF27" s="66"/>
-      <c r="AG27" s="66"/>
-      <c r="AH27" s="66"/>
-      <c r="AI27" s="66"/>
-      <c r="AJ27" s="66"/>
-      <c r="AK27" s="66"/>
-      <c r="AL27" s="66"/>
-      <c r="AM27" s="66"/>
-      <c r="AN27" s="66"/>
-      <c r="AO27" s="66"/>
-      <c r="AP27" s="66"/>
-      <c r="AQ27" s="66"/>
-      <c r="AR27" s="66"/>
-      <c r="AS27" s="66"/>
-      <c r="AT27" s="66"/>
-      <c r="AU27" s="66"/>
-      <c r="AV27" s="66"/>
-    </row>
-    <row r="28" s="48" customFormat="1" ht="31.5" spans="1:48">
+      <c r="I27" s="66"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" s="48" customFormat="1" ht="15.75" spans="1:48">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
+      <c r="C28" s="56" t="s">
+        <v>73</v>
+      </c>
       <c r="D28" s="10" t="s">
         <v>74</v>
       </c>
@@ -3724,16 +3686,16 @@
         <v>27</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>76</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H28" s="29"/>
       <c r="I28"/>
-      <c r="J28" s="10"/>
+      <c r="J28" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="K28" s="66"/>
       <c r="L28" s="66"/>
       <c r="M28" s="66"/>
@@ -3773,23 +3735,24 @@
       <c r="AU28" s="66"/>
       <c r="AV28" s="66"/>
     </row>
-    <row r="29" s="48" customFormat="1" ht="15.75" spans="1:48">
+    <row r="29" s="48" customFormat="1" ht="31.5" spans="1:48">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
-      <c r="C29"/>
       <c r="D29" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="I29"/>
       <c r="J29" s="10"/>
       <c r="K29" s="66"/>
@@ -3835,19 +3798,21 @@
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="D30" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="G30" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="11">
-        <v>2</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H30" s="11"/>
       <c r="I30"/>
-      <c r="J30" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="J30" s="10"/>
       <c r="K30" s="66"/>
       <c r="L30" s="66"/>
       <c r="M30" s="66"/>
@@ -3887,25 +3852,23 @@
       <c r="AU30" s="66"/>
       <c r="AV30" s="66"/>
     </row>
-    <row r="31" s="48" customFormat="1" ht="31.5" spans="1:48">
+    <row r="31" s="48" customFormat="1" ht="15.75" spans="1:48">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31"/>
-      <c r="D31" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>80</v>
-      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="H31" s="11">
+        <v>2</v>
+      </c>
       <c r="I31"/>
-      <c r="J31" s="10"/>
+      <c r="J31" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="K31" s="66"/>
       <c r="L31" s="66"/>
       <c r="M31" s="66"/>
@@ -3945,18 +3908,18 @@
       <c r="AU31" s="66"/>
       <c r="AV31" s="66"/>
     </row>
-    <row r="32" s="48" customFormat="1" ht="15.75" spans="1:48">
+    <row r="32" s="48" customFormat="1" ht="31.5" spans="1:48">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32"/>
       <c r="D32" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>25</v>
@@ -4003,59 +3966,98 @@
       <c r="AU32" s="66"/>
       <c r="AV32" s="66"/>
     </row>
-    <row r="33" customFormat="1" ht="15.75" spans="1:10">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="64"/>
-      <c r="J33" s="59" t="s">
-        <v>31</v>
-      </c>
+    <row r="33" s="48" customFormat="1" ht="15.75" spans="1:48">
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33"/>
+      <c r="D33" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
+      <c r="AC33" s="66"/>
+      <c r="AD33" s="66"/>
+      <c r="AE33" s="66"/>
+      <c r="AF33" s="66"/>
+      <c r="AG33" s="66"/>
+      <c r="AH33" s="66"/>
+      <c r="AI33" s="66"/>
+      <c r="AJ33" s="66"/>
+      <c r="AK33" s="66"/>
+      <c r="AL33" s="66"/>
+      <c r="AM33" s="66"/>
+      <c r="AN33" s="66"/>
+      <c r="AO33" s="66"/>
+      <c r="AP33" s="66"/>
+      <c r="AQ33" s="66"/>
+      <c r="AR33" s="66"/>
+      <c r="AS33" s="66"/>
+      <c r="AT33" s="66"/>
+      <c r="AU33" s="66"/>
+      <c r="AV33" s="66"/>
     </row>
     <row r="34" customFormat="1" ht="15.75" spans="1:10">
       <c r="A34" s="61"/>
       <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="59" t="s">
+      <c r="C34" s="59"/>
+      <c r="D34" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="H34" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="J34" s="59"/>
+      <c r="H34" s="64"/>
+      <c r="J34" s="59" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="35" customFormat="1" ht="15.75" spans="1:10">
       <c r="A35" s="61"/>
       <c r="B35" s="61"/>
       <c r="C35" s="61"/>
-      <c r="D35" s="59" t="s">
-        <v>60</v>
-      </c>
+      <c r="D35" s="59"/>
       <c r="E35" s="59" t="s">
         <v>27</v>
       </c>
       <c r="F35" s="59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G35" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="64"/>
+        <v>59</v>
+      </c>
+      <c r="H35" s="64" t="s">
+        <v>60</v>
+      </c>
       <c r="J35" s="59"/>
     </row>
     <row r="36" customFormat="1" ht="15.75" spans="1:10">
@@ -4066,492 +4068,496 @@
         <v>61</v>
       </c>
       <c r="E36" s="59" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F36" s="59" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G36" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="H36" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="J36" s="59" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H36" s="64"/>
+      <c r="J36" s="59"/>
     </row>
     <row r="37" customFormat="1" ht="15.75" spans="1:10">
       <c r="A37" s="61"/>
       <c r="B37" s="61"/>
       <c r="C37" s="61"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="62" t="s">
+      <c r="D37" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="H37" s="70" t="s">
         <v>66</v>
-      </c>
-      <c r="G37" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="64" t="s">
-        <v>67</v>
       </c>
       <c r="J37" s="59" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="31.5" spans="1:10">
+    <row r="38" customFormat="1" ht="15.75" spans="1:10">
       <c r="A38" s="61"/>
       <c r="B38" s="61"/>
       <c r="C38" s="61"/>
       <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
+      <c r="E38" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="62" t="s">
+        <v>67</v>
+      </c>
       <c r="G38" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" s="64"/>
+        <v>59</v>
+      </c>
+      <c r="H38" s="64" t="s">
+        <v>68</v>
+      </c>
       <c r="J38" s="59" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" customFormat="1" ht="31.5" spans="1:10">
       <c r="A39" s="61"/>
       <c r="B39" s="61"/>
       <c r="C39" s="61"/>
-      <c r="D39" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="59" t="s">
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="64"/>
+      <c r="J39" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" ht="31.5" spans="1:10">
+      <c r="A40" s="61"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="E40" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="G39" s="63" t="s">
+      <c r="F40" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="70" t="s">
+      <c r="G40" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="J39" s="59" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" s="48" customFormat="1" ht="31.5" spans="1:48">
-      <c r="A40" s="51"/>
-      <c r="B40" s="51"/>
-      <c r="C40"/>
-      <c r="D40" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="9" t="s">
+      <c r="H40" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="J40" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" s="48" customFormat="1" ht="31.5" spans="1:48">
+      <c r="A41" s="51"/>
+      <c r="B41" s="51"/>
+      <c r="C41"/>
+      <c r="D41" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="I40"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="66"/>
-      <c r="R40" s="66"/>
-      <c r="S40" s="66"/>
-      <c r="T40" s="66"/>
-      <c r="U40" s="66"/>
-      <c r="V40" s="66"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
-      <c r="Y40" s="66"/>
-      <c r="Z40" s="66"/>
-      <c r="AA40" s="66"/>
-      <c r="AB40" s="66"/>
-      <c r="AC40" s="66"/>
-      <c r="AD40" s="66"/>
-      <c r="AE40" s="66"/>
-      <c r="AF40" s="66"/>
-      <c r="AG40" s="66"/>
-      <c r="AH40" s="66"/>
-      <c r="AI40" s="66"/>
-      <c r="AJ40" s="66"/>
-      <c r="AK40" s="66"/>
-      <c r="AL40" s="66"/>
-      <c r="AM40" s="66"/>
-      <c r="AN40" s="66"/>
-      <c r="AO40" s="66"/>
-      <c r="AP40" s="66"/>
-      <c r="AQ40" s="66"/>
-      <c r="AR40" s="66"/>
-      <c r="AS40" s="66"/>
-      <c r="AT40" s="66"/>
-      <c r="AU40" s="66"/>
-      <c r="AV40" s="66"/>
-    </row>
-    <row r="41" ht="31.5" spans="3:10">
-      <c r="C41" s="56" t="s">
+      <c r="H41" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="I41"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="66"/>
+      <c r="R41" s="66"/>
+      <c r="S41" s="66"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="66"/>
+      <c r="X41" s="66"/>
+      <c r="Y41" s="66"/>
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="66"/>
+      <c r="AB41" s="66"/>
+      <c r="AC41" s="66"/>
+      <c r="AD41" s="66"/>
+      <c r="AE41" s="66"/>
+      <c r="AF41" s="66"/>
+      <c r="AG41" s="66"/>
+      <c r="AH41" s="66"/>
+      <c r="AI41" s="66"/>
+      <c r="AJ41" s="66"/>
+      <c r="AK41" s="66"/>
+      <c r="AL41" s="66"/>
+      <c r="AM41" s="66"/>
+      <c r="AN41" s="66"/>
+      <c r="AO41" s="66"/>
+      <c r="AP41" s="66"/>
+      <c r="AQ41" s="66"/>
+      <c r="AR41" s="66"/>
+      <c r="AS41" s="66"/>
+      <c r="AT41" s="66"/>
+      <c r="AU41" s="66"/>
+      <c r="AV41" s="66"/>
+    </row>
+    <row r="42" ht="31.5" spans="3:10">
+      <c r="C42" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="D42" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="E42" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="F42" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="71" t="s">
+      <c r="H42" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="I42"/>
+      <c r="J42" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" spans="4:10">
+      <c r="D43" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="I41"/>
-      <c r="J41" s="10" t="s">
+      <c r="G43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43"/>
+      <c r="J43"/>
+    </row>
+    <row r="44" ht="12" customHeight="1" spans="4:10">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="71" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="42" ht="15.75" spans="4:10">
-      <c r="D42" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="10" t="s">
+      <c r="I44"/>
+      <c r="J44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" spans="4:10">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="F45" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42"/>
-      <c r="J42"/>
-    </row>
-    <row r="43" ht="12" customHeight="1" spans="4:10">
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="I43"/>
-      <c r="J43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" spans="4:10">
-      <c r="D44" s="10"/>
-      <c r="E44" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H44" s="11"/>
-      <c r="I44"/>
-      <c r="J44"/>
-    </row>
-    <row r="45" ht="21" customHeight="1" spans="4:10">
-      <c r="D45" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="H45" s="11"/>
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" ht="15.75" spans="4:10">
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+    <row r="46" ht="21" customHeight="1" spans="4:10">
+      <c r="D46" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="G46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46"/>
+      <c r="J46"/>
+    </row>
+    <row r="47" ht="15.75" spans="4:10">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="I46"/>
-      <c r="J46" t="s">
+      <c r="H47" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="I47"/>
+      <c r="J47" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" ht="14" customHeight="1" spans="4:10">
-      <c r="D47" s="10" t="s">
+    <row r="48" ht="14" customHeight="1" spans="4:10">
+      <c r="D48" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="11"/>
+      <c r="I48"/>
+      <c r="J48"/>
+    </row>
+    <row r="49" ht="15.75" spans="4:10">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H49" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="I49"/>
+      <c r="J49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="4:10">
+      <c r="D50" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H50" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G47" s="9" t="s">
+      <c r="I50"/>
+      <c r="J50"/>
+    </row>
+    <row r="51" s="26" customFormat="1" ht="15.75" spans="3:10">
+      <c r="C51" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G51" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H47" s="11"/>
-      <c r="I47"/>
-      <c r="J47"/>
-    </row>
-    <row r="48" ht="15.75" spans="4:10">
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="9" t="s">
+      <c r="H51" s="11"/>
+      <c r="I51"/>
+      <c r="J51" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" s="26" customFormat="1" ht="21" customHeight="1" spans="4:10">
+      <c r="D52" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I52"/>
+      <c r="J52"/>
+    </row>
+    <row r="53" s="26" customFormat="1" ht="15.75" spans="4:10">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H48" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="I48"/>
-      <c r="J48" t="s">
+      <c r="H53" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="I53"/>
+      <c r="J53" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="4:10">
-      <c r="D49" s="10" t="s">
+    <row r="54" s="26" customFormat="1" ht="14" customHeight="1" spans="4:10">
+      <c r="D54" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F54" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H49" s="10" t="s">
+      <c r="G54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I54"/>
+      <c r="J54"/>
+    </row>
+    <row r="55" ht="31.5" spans="3:10">
+      <c r="C55" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" s="11"/>
+      <c r="I55"/>
+      <c r="J55" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" spans="4:10">
+      <c r="D56" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I49"/>
-      <c r="J49"/>
-    </row>
-    <row r="50" s="26" customFormat="1" ht="15.75" spans="3:10">
-      <c r="C50" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" s="11"/>
-      <c r="I50"/>
-      <c r="J50" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" s="26" customFormat="1" ht="21" customHeight="1" spans="4:10">
-      <c r="D51" s="10" t="s">
+      <c r="E56" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G51" s="9" t="s">
+      <c r="G56" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I51"/>
-      <c r="J51"/>
-    </row>
-    <row r="52" s="26" customFormat="1" ht="15.75" spans="4:10">
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="9" t="s">
+      <c r="H56" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I56"/>
+      <c r="J56"/>
+    </row>
+    <row r="57" ht="15.75" spans="4:10">
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H52" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="I52"/>
-      <c r="J52" t="s">
+      <c r="H57" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="I57"/>
+      <c r="J57" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" s="26" customFormat="1" ht="14" customHeight="1" spans="4:10">
-      <c r="D53" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I53"/>
-      <c r="J53"/>
-    </row>
-    <row r="54" ht="31.5" spans="3:10">
-      <c r="C54" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" s="11"/>
-      <c r="I54"/>
-      <c r="J54" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" spans="4:10">
-      <c r="D55" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I55"/>
-      <c r="J55"/>
-    </row>
-    <row r="56" ht="15.75" spans="4:10">
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H56" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="I56"/>
-      <c r="J56" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" ht="31.5" spans="4:10">
-      <c r="D57" s="10" t="s">
+    <row r="58" ht="31.5" spans="4:10">
+      <c r="D58" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H58" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I57"/>
-      <c r="J57"/>
-    </row>
-    <row r="58" ht="15.75" spans="3:10">
-      <c r="C58" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" s="10" t="s">
+      <c r="I58"/>
+      <c r="J58"/>
+    </row>
+    <row r="59" ht="15.75" spans="3:10">
+      <c r="C59" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="E58" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H58" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="J58" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" spans="4:8">
-      <c r="D59" s="10"/>
       <c r="E59" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>90</v>
+        <v>111</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="60" ht="15.75" spans="4:8">
-      <c r="D60" s="10" t="s">
-        <v>111</v>
-      </c>
+      <c r="D60" s="10"/>
       <c r="E60" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="11"/>
-    </row>
-    <row r="61" ht="31.5" spans="4:8">
+        <v>29</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" spans="4:8">
       <c r="D61" s="10" t="s">
         <v>112</v>
       </c>
@@ -4559,193 +4565,189 @@
         <v>27</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" spans="4:7">
+        <v>32</v>
+      </c>
+      <c r="H61" s="11"/>
+    </row>
+    <row r="62" ht="31.5" spans="4:8">
       <c r="D62" s="10" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F62" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" spans="4:7">
+      <c r="D63" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" spans="4:10">
-      <c r="D63" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F63" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" spans="4:10">
+      <c r="D64" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G63" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="J63" s="26" t="s">
+      <c r="E64" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G64" s="9" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="64" s="26" customFormat="1" ht="15.75" spans="4:10">
-      <c r="D64" s="10"/>
-      <c r="E64" s="10" t="s">
+      <c r="H64" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J64" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="F64" s="10" t="s">
+    </row>
+    <row r="65" s="26" customFormat="1" ht="15.75" spans="4:10">
+      <c r="D65" s="10"/>
+      <c r="E65" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="F65" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G65" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H64" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="J64" s="26" t="s">
+      <c r="H65" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="J65" s="26" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" spans="4:8">
-      <c r="D65" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="66" ht="15.75" spans="4:8">
       <c r="D66" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H66" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="67" ht="15.75" spans="4:8">
       <c r="D67" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H67" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="68" ht="15.75" spans="4:8">
       <c r="D68" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H68" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="69" ht="15.75" spans="4:8">
       <c r="D69" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H69" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E69" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F69" s="10" t="s">
+    </row>
+    <row r="70" ht="15.75" spans="4:8">
+      <c r="D70" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G69" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H69" s="10" t="s">
+      <c r="E70" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F70" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="70" ht="15.75" spans="7:7">
       <c r="G70" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" ht="15.75" spans="1:10">
-      <c r="A71" s="61"/>
-      <c r="B71" s="61"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="F71" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" spans="7:7">
+      <c r="G71" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G71" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="H71" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="J71" s="59"/>
     </row>
     <row r="72" customFormat="1" ht="15.75" spans="1:10">
       <c r="A72" s="61"/>
       <c r="B72" s="61"/>
       <c r="C72" s="61"/>
-      <c r="D72" s="59" t="s">
-        <v>60</v>
-      </c>
+      <c r="D72" s="59"/>
       <c r="E72" s="59" t="s">
         <v>27</v>
       </c>
       <c r="F72" s="59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G72" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="H72" s="64"/>
+        <v>59</v>
+      </c>
+      <c r="H72" s="64" t="s">
+        <v>60</v>
+      </c>
       <c r="J72" s="59"/>
     </row>
     <row r="73" customFormat="1" ht="15.75" spans="1:10">
@@ -4755,167 +4757,124 @@
       <c r="D73" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="E73" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="F73" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="G73" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="H73" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="J73" s="59" t="s">
-        <v>31</v>
-      </c>
+      <c r="E73" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="F73" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G73" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H73" s="64"/>
+      <c r="J73" s="59"/>
     </row>
     <row r="74" customFormat="1" ht="15.75" spans="1:10">
       <c r="A74" s="61"/>
       <c r="B74" s="61"/>
       <c r="C74" s="61"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F74" s="62" t="s">
+      <c r="D74" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="E74" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="F74" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="G74" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="H74" s="70" t="s">
         <v>66</v>
-      </c>
-      <c r="G74" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="H74" s="64" t="s">
-        <v>67</v>
       </c>
       <c r="J74" s="59" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="75" customFormat="1" ht="31.5" spans="1:10">
+    <row r="75" customFormat="1" ht="15.75" spans="1:10">
       <c r="A75" s="61"/>
       <c r="B75" s="61"/>
       <c r="C75" s="61"/>
       <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
+      <c r="E75" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" s="62" t="s">
+        <v>67</v>
+      </c>
       <c r="G75" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="H75" s="64"/>
+        <v>59</v>
+      </c>
+      <c r="H75" s="64" t="s">
+        <v>68</v>
+      </c>
       <c r="J75" s="59" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" customFormat="1" ht="31.5" spans="1:10">
       <c r="A76" s="61"/>
       <c r="B76" s="61"/>
       <c r="C76" s="61"/>
-      <c r="D76" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="E76" s="68" t="s">
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="H76" s="64"/>
+      <c r="J76" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" ht="31.5" spans="1:10">
+      <c r="A77" s="61"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="F76" s="68" t="s">
+      <c r="E77" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="G76" s="68" t="s">
+      <c r="F77" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="H76" s="70" t="s">
+      <c r="G77" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="J76" s="59" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77" s="48" customFormat="1" ht="15.75" spans="1:48">
-      <c r="A77" s="51"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H77" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I77"/>
-      <c r="J77" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K77" s="66"/>
-      <c r="L77" s="66"/>
-      <c r="M77" s="66"/>
-      <c r="N77" s="66"/>
-      <c r="O77" s="66"/>
-      <c r="P77" s="66"/>
-      <c r="Q77" s="66"/>
-      <c r="R77" s="66"/>
-      <c r="S77" s="66"/>
-      <c r="T77" s="66"/>
-      <c r="U77" s="66"/>
-      <c r="V77" s="66"/>
-      <c r="W77" s="66"/>
-      <c r="X77" s="66"/>
-      <c r="Y77" s="66"/>
-      <c r="Z77" s="66"/>
-      <c r="AA77" s="66"/>
-      <c r="AB77" s="66"/>
-      <c r="AC77" s="66"/>
-      <c r="AD77" s="66"/>
-      <c r="AE77" s="66"/>
-      <c r="AF77" s="66"/>
-      <c r="AG77" s="66"/>
-      <c r="AH77" s="66"/>
-      <c r="AI77" s="66"/>
-      <c r="AJ77" s="66"/>
-      <c r="AK77" s="66"/>
-      <c r="AL77" s="66"/>
-      <c r="AM77" s="66"/>
-      <c r="AN77" s="66"/>
-      <c r="AO77" s="66"/>
-      <c r="AP77" s="66"/>
-      <c r="AQ77" s="66"/>
-      <c r="AR77" s="66"/>
-      <c r="AS77" s="66"/>
-      <c r="AT77" s="66"/>
-      <c r="AU77" s="66"/>
-      <c r="AV77" s="66"/>
+      <c r="H77" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="J77" s="59" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="78" s="48" customFormat="1" ht="15.75" spans="1:48">
       <c r="A78" s="51"/>
       <c r="B78" s="51"/>
-      <c r="C78"/>
+      <c r="C78" s="56" t="s">
+        <v>133</v>
+      </c>
       <c r="D78" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F78" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E78" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>137</v>
-      </c>
       <c r="G78" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="I78"/>
       <c r="J78" s="10" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="K78" s="66"/>
       <c r="L78" s="66"/>
@@ -4956,43 +4915,85 @@
       <c r="AU78" s="66"/>
       <c r="AV78" s="66"/>
     </row>
-    <row r="79" customFormat="1" ht="15.75" spans="1:10">
+    <row r="79" s="48" customFormat="1" ht="15.75" spans="1:48">
       <c r="A79" s="51"/>
       <c r="B79" s="51"/>
+      <c r="C79"/>
       <c r="D79" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H79" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E79" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H79" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="J79" s="10"/>
+      <c r="I79"/>
+      <c r="J79" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K79" s="66"/>
+      <c r="L79" s="66"/>
+      <c r="M79" s="66"/>
+      <c r="N79" s="66"/>
+      <c r="O79" s="66"/>
+      <c r="P79" s="66"/>
+      <c r="Q79" s="66"/>
+      <c r="R79" s="66"/>
+      <c r="S79" s="66"/>
+      <c r="T79" s="66"/>
+      <c r="U79" s="66"/>
+      <c r="V79" s="66"/>
+      <c r="W79" s="66"/>
+      <c r="X79" s="66"/>
+      <c r="Y79" s="66"/>
+      <c r="Z79" s="66"/>
+      <c r="AA79" s="66"/>
+      <c r="AB79" s="66"/>
+      <c r="AC79" s="66"/>
+      <c r="AD79" s="66"/>
+      <c r="AE79" s="66"/>
+      <c r="AF79" s="66"/>
+      <c r="AG79" s="66"/>
+      <c r="AH79" s="66"/>
+      <c r="AI79" s="66"/>
+      <c r="AJ79" s="66"/>
+      <c r="AK79" s="66"/>
+      <c r="AL79" s="66"/>
+      <c r="AM79" s="66"/>
+      <c r="AN79" s="66"/>
+      <c r="AO79" s="66"/>
+      <c r="AP79" s="66"/>
+      <c r="AQ79" s="66"/>
+      <c r="AR79" s="66"/>
+      <c r="AS79" s="66"/>
+      <c r="AT79" s="66"/>
+      <c r="AU79" s="66"/>
+      <c r="AV79" s="66"/>
     </row>
     <row r="80" customFormat="1" ht="15.75" spans="1:10">
       <c r="A80" s="51"/>
       <c r="B80" s="51"/>
       <c r="D80" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H80" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H80" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="J80" s="10"/>
     </row>
@@ -5003,16 +5004,16 @@
         <v>143</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J81" s="10"/>
     </row>
@@ -5023,16 +5024,16 @@
         <v>144</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J82" s="10"/>
     </row>
@@ -5043,16 +5044,16 @@
         <v>145</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J83" s="10"/>
     </row>
@@ -5060,19 +5061,19 @@
       <c r="A84" s="51"/>
       <c r="B84" s="51"/>
       <c r="D84" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F84" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E84" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>127</v>
-      </c>
       <c r="G84" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J84" s="10"/>
     </row>
@@ -5083,16 +5084,16 @@
         <v>148</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="J85" s="10"/>
     </row>
@@ -5100,33 +5101,53 @@
       <c r="A86" s="51"/>
       <c r="B86" s="51"/>
       <c r="D86" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H86" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F86" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H86" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="J86" s="10"/>
     </row>
     <row r="87" customFormat="1" ht="15.75" spans="1:10">
       <c r="A87" s="51"/>
       <c r="B87" s="51"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
+      <c r="D87" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>153</v>
+      </c>
       <c r="G87" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H87" s="11"/>
+        <v>101</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>154</v>
+      </c>
       <c r="J87" s="10"/>
+    </row>
+    <row r="88" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A88" s="51"/>
+      <c r="B88" s="51"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H88" s="11"/>
+      <c r="J88" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5141,12 +5162,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:IV146"/>
+  <dimension ref="A1:IV148"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H128" sqref="H128"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5220,7 +5241,7 @@
       <c r="A3" s="54"/>
       <c r="B3" s="55"/>
       <c r="C3" s="56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D3" s="53"/>
       <c r="E3" s="53"/>
@@ -5229,11 +5250,11 @@
         <v>38</v>
       </c>
       <c r="H3" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I3" s="53"/>
       <c r="J3" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" s="13" customFormat="1" ht="15.75" spans="1:9">
@@ -5241,19 +5262,19 @@
       <c r="B4" s="57"/>
       <c r="C4" s="47"/>
       <c r="D4" s="58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E4" s="59" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G4" s="51" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I4" s="58"/>
     </row>
@@ -5262,13 +5283,13 @@
       <c r="B5" s="57"/>
       <c r="C5" s="47"/>
       <c r="D5" s="58" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E5" s="59" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G5" s="51" t="s">
         <v>25</v>
@@ -5283,7 +5304,7 @@
       <c r="C6" s="47"/>
       <c r="D6" s="58"/>
       <c r="E6" s="59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F6" s="59" t="s">
         <v>43</v>
@@ -5309,7 +5330,7 @@
         <v>38</v>
       </c>
       <c r="H7" s="69" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>31</v>
@@ -5317,23 +5338,23 @@
     </row>
     <row r="8" s="47" customFormat="1" ht="31.5" spans="4:256">
       <c r="D8" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="59" t="s">
         <v>163</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>162</v>
       </c>
       <c r="F8" s="59" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="51" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -5584,16 +5605,16 @@
     </row>
     <row r="9" customFormat="1" ht="15.75" spans="3:10">
       <c r="C9" s="56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G9" s="51" t="s">
         <v>25</v>
@@ -5601,22 +5622,22 @@
       <c r="H9" s="10"/>
       <c r="I9" s="59"/>
       <c r="J9" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="15.75" spans="3:9">
       <c r="C10" s="47"/>
       <c r="D10" s="59" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E10" s="59" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="59"/>
@@ -5626,16 +5647,16 @@
       <c r="B11" s="61"/>
       <c r="C11" s="47"/>
       <c r="D11" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="51" t="s">
         <v>172</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>171</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="59"/>
@@ -5645,16 +5666,16 @@
       <c r="B12" s="61"/>
       <c r="C12" s="47"/>
       <c r="D12" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="59" t="s">
-        <v>174</v>
-      </c>
       <c r="F12" s="59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H12" s="10"/>
       <c r="J12" s="59"/>
@@ -5664,110 +5685,107 @@
       <c r="B13" s="61"/>
       <c r="C13" s="47"/>
       <c r="D13" s="59" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G13" s="51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H13" s="10"/>
       <c r="J13" s="59"/>
     </row>
-    <row r="14" customFormat="1" ht="15.75" spans="1:10">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
+    <row r="14" customFormat="1" ht="15.75" spans="3:10">
       <c r="C14" s="47"/>
       <c r="D14" s="59"/>
-      <c r="E14" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="F14" s="59" t="s">
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="H14" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="I14" s="59"/>
+      <c r="J14" s="66"/>
+    </row>
+    <row r="15" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="G15" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="J14" s="59" t="s">
+      <c r="H15" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="J15" s="59" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" s="26" customFormat="1" ht="15.75" spans="3:10">
-      <c r="C15" s="47"/>
-      <c r="D15" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="10"/>
     </row>
     <row r="16" s="26" customFormat="1" ht="15.75" spans="3:10">
       <c r="C16" s="47"/>
-      <c r="D16" s="59"/>
+      <c r="D16" s="59" t="s">
+        <v>185</v>
+      </c>
       <c r="E16" s="59"/>
-      <c r="F16" s="59" t="s">
-        <v>183</v>
-      </c>
+      <c r="F16" s="59"/>
       <c r="G16" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>185</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H16" s="10"/>
       <c r="I16" s="66"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" ht="31.5" spans="4:10">
-      <c r="D17" s="59" t="s">
+    <row r="17" s="26" customFormat="1" ht="15.75" spans="3:10">
+      <c r="C17" s="47"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
       <c r="G17" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="72" t="s">
-        <v>155</v>
+        <v>187</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="I17" s="66"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" ht="15.75" spans="4:10">
-      <c r="D18" s="59"/>
-      <c r="E18" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="F18" s="62" t="s">
-        <v>178</v>
-      </c>
+    <row r="18" ht="31.5" spans="4:10">
+      <c r="D18" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
       <c r="G18" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="H18" s="72" t="s">
+        <v>156</v>
+      </c>
       <c r="I18" s="66"/>
       <c r="J18" s="10"/>
     </row>
     <row r="19" ht="15.75" spans="4:10">
-      <c r="D19" s="59" t="s">
-        <v>187</v>
-      </c>
+      <c r="D19" s="59"/>
       <c r="E19" s="62" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F19" s="62" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G19" s="51" t="s">
         <v>25</v>
@@ -5776,59 +5794,55 @@
       <c r="I19" s="66"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" s="26" customFormat="1" ht="15.75" spans="3:10">
-      <c r="C20" s="47"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59" t="s">
-        <v>189</v>
+    <row r="20" ht="15.75" spans="4:10">
+      <c r="D20" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>191</v>
       </c>
       <c r="G20" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>190</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H20" s="10"/>
       <c r="I20" s="66"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" ht="31.5" spans="4:10">
-      <c r="D21" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="F21" s="62" t="s">
+    <row r="21" s="26" customFormat="1" ht="15.75" spans="3:10">
+      <c r="C21" s="47"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59" t="s">
         <v>192</v>
       </c>
       <c r="G21" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="10"/>
+        <v>187</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="I21" s="66"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" customFormat="1" ht="15.75" spans="1:10">
-      <c r="A22" s="61"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="47"/>
+    <row r="22" ht="31.5" spans="4:10">
       <c r="D22" s="59" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E22" s="62" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F22" s="62" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="J22" s="59"/>
+        <v>25</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" customFormat="1" ht="15.75" spans="1:10">
       <c r="A23" s="61"/>
@@ -5838,72 +5852,74 @@
         <v>196</v>
       </c>
       <c r="E23" s="62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F23" s="62" t="s">
         <v>197</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="J23" s="59"/>
     </row>
-    <row r="24" customFormat="1" ht="31.5" spans="1:10">
+    <row r="24" customFormat="1" ht="15.75" spans="1:10">
       <c r="A24" s="61"/>
       <c r="B24" s="61"/>
       <c r="C24" s="47"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
+      <c r="D24" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="62" t="s">
+        <v>200</v>
+      </c>
       <c r="G24" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="J24" s="59" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="J24" s="59"/>
     </row>
     <row r="25" customFormat="1" ht="31.5" spans="1:10">
       <c r="A25" s="61"/>
       <c r="B25" s="61"/>
       <c r="C25" s="47"/>
-      <c r="D25" s="59" t="s">
-        <v>200</v>
-      </c>
-      <c r="E25" s="62" t="s">
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="F25" s="62" t="s">
+      <c r="H25" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="G25" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="J25" s="59"/>
-    </row>
-    <row r="26" customFormat="1" ht="15.75" spans="1:10">
+      <c r="J25" s="59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="31.5" spans="1:10">
       <c r="A26" s="61"/>
       <c r="B26" s="61"/>
       <c r="C26" s="47"/>
       <c r="D26" s="59" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E26" s="62" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="F26" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="G26" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="10"/>
+        <v>205</v>
+      </c>
+      <c r="G26" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="J26" s="59"/>
     </row>
     <row r="27" customFormat="1" ht="15.75" spans="1:10">
@@ -5911,16 +5927,16 @@
       <c r="B27" s="61"/>
       <c r="C27" s="47"/>
       <c r="D27" s="59" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E27" s="62" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="F27" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="G27" s="63" t="s">
-        <v>171</v>
+        <v>200</v>
+      </c>
+      <c r="G27" s="51" t="s">
+        <v>25</v>
       </c>
       <c r="H27" s="10"/>
       <c r="J27" s="59"/>
@@ -5929,56 +5945,56 @@
       <c r="A28" s="61"/>
       <c r="B28" s="61"/>
       <c r="C28" s="47"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="H28" s="10" t="s">
+      <c r="D28" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="J28" s="59" t="s">
-        <v>31</v>
-      </c>
+      <c r="E28" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="F28" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="J28" s="59"/>
     </row>
     <row r="29" customFormat="1" ht="15.75" spans="1:10">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
       <c r="C29" s="47"/>
-      <c r="D29" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="E29" s="62" t="s">
-        <v>205</v>
-      </c>
-      <c r="F29" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="G29" s="63" t="s">
-        <v>18</v>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="51" t="s">
+        <v>201</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="J29" s="59"/>
+        <v>210</v>
+      </c>
+      <c r="J29" s="59" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="30" customFormat="1" ht="15.75" spans="1:10">
       <c r="A30" s="61"/>
       <c r="B30" s="61"/>
       <c r="C30" s="47"/>
-      <c r="D30" s="59"/>
+      <c r="D30" s="59" t="s">
+        <v>211</v>
+      </c>
       <c r="E30" s="62" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F30" s="62" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G30" s="63" t="s">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J30" s="59"/>
     </row>
@@ -5986,78 +6002,39 @@
       <c r="A31" s="61"/>
       <c r="B31" s="61"/>
       <c r="C31" s="47"/>
-      <c r="D31" s="59" t="s">
-        <v>196</v>
-      </c>
+      <c r="D31" s="59"/>
       <c r="E31" s="62" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="F31" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="G31" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="G31" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="J31" s="59"/>
+    </row>
+    <row r="32" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="E32" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="J31" s="59"/>
-    </row>
-    <row r="32" s="48" customFormat="1" ht="15.75" spans="1:48">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E32" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="F32" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H32" s="29"/>
-      <c r="I32"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="66"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="66"/>
-      <c r="AB32" s="66"/>
-      <c r="AC32" s="66"/>
-      <c r="AD32" s="66"/>
-      <c r="AE32" s="66"/>
-      <c r="AF32" s="66"/>
-      <c r="AG32" s="66"/>
-      <c r="AH32" s="66"/>
-      <c r="AI32" s="66"/>
-      <c r="AJ32" s="66"/>
-      <c r="AK32" s="66"/>
-      <c r="AL32" s="66"/>
-      <c r="AM32" s="66"/>
-      <c r="AN32" s="66"/>
-      <c r="AO32" s="66"/>
-      <c r="AP32" s="66"/>
-      <c r="AQ32" s="66"/>
-      <c r="AR32" s="66"/>
-      <c r="AS32" s="66"/>
-      <c r="AT32" s="66"/>
-      <c r="AU32" s="66"/>
-      <c r="AV32" s="66"/>
+      <c r="H32" s="10"/>
+      <c r="J32" s="59"/>
     </row>
     <row r="33" s="48" customFormat="1" ht="15.75" spans="1:48">
       <c r="A33" s="51"/>
@@ -6067,15 +6044,15 @@
         <v>215</v>
       </c>
       <c r="E33" s="62" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F33" s="62" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H33" s="10"/>
+        <v>172</v>
+      </c>
+      <c r="H33" s="29"/>
       <c r="I33"/>
       <c r="J33" s="10"/>
       <c r="K33" s="66"/>
@@ -6122,18 +6099,18 @@
       <c r="B34" s="51"/>
       <c r="C34" s="47"/>
       <c r="D34" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E34" s="62" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F34" s="62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H34" s="11"/>
+        <v>172</v>
+      </c>
+      <c r="H34" s="10"/>
       <c r="I34"/>
       <c r="J34" s="10"/>
       <c r="K34" s="66"/>
@@ -6180,16 +6157,16 @@
       <c r="B35" s="51"/>
       <c r="C35" s="47"/>
       <c r="D35" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E35" s="62" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="F35" s="62" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35"/>
@@ -6238,20 +6215,18 @@
       <c r="B36" s="51"/>
       <c r="C36" s="47"/>
       <c r="D36" s="10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E36" s="62" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="F36" s="62" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>223</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="H36" s="11"/>
       <c r="I36"/>
       <c r="J36" s="10"/>
       <c r="K36" s="66"/>
@@ -6298,10 +6273,10 @@
       <c r="B37" s="51"/>
       <c r="C37" s="47"/>
       <c r="D37" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E37" s="62" t="s">
         <v>224</v>
-      </c>
-      <c r="E37" s="62" t="s">
-        <v>221</v>
       </c>
       <c r="F37" s="62" t="s">
         <v>225</v>
@@ -6353,103 +6328,140 @@
       <c r="AU37" s="66"/>
       <c r="AV37" s="66"/>
     </row>
-    <row r="38" customFormat="1" ht="15.75" spans="1:10">
-      <c r="A38" s="61"/>
-      <c r="B38" s="61"/>
+    <row r="38" s="48" customFormat="1" ht="15.75" spans="1:48">
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="47"/>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="10" t="s">
         <v>227</v>
       </c>
       <c r="E38" s="62" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F38" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="G38" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="H38" s="64"/>
-      <c r="J38" s="59"/>
+      <c r="G38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="I38"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="T38" s="66"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="66"/>
+      <c r="Y38" s="66"/>
+      <c r="Z38" s="66"/>
+      <c r="AA38" s="66"/>
+      <c r="AB38" s="66"/>
+      <c r="AC38" s="66"/>
+      <c r="AD38" s="66"/>
+      <c r="AE38" s="66"/>
+      <c r="AF38" s="66"/>
+      <c r="AG38" s="66"/>
+      <c r="AH38" s="66"/>
+      <c r="AI38" s="66"/>
+      <c r="AJ38" s="66"/>
+      <c r="AK38" s="66"/>
+      <c r="AL38" s="66"/>
+      <c r="AM38" s="66"/>
+      <c r="AN38" s="66"/>
+      <c r="AO38" s="66"/>
+      <c r="AP38" s="66"/>
+      <c r="AQ38" s="66"/>
+      <c r="AR38" s="66"/>
+      <c r="AS38" s="66"/>
+      <c r="AT38" s="66"/>
+      <c r="AU38" s="66"/>
+      <c r="AV38" s="66"/>
     </row>
     <row r="39" customFormat="1" ht="15.75" spans="1:10">
       <c r="A39" s="61"/>
       <c r="B39" s="61"/>
       <c r="C39" s="47"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
+      <c r="D39" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="E39" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="F39" s="62" t="s">
+        <v>231</v>
+      </c>
       <c r="G39" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="70" t="s">
-        <v>229</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="H39" s="64"/>
       <c r="J39" s="59"/>
     </row>
     <row r="40" customFormat="1" ht="15.75" spans="1:10">
       <c r="A40" s="61"/>
       <c r="B40" s="61"/>
       <c r="C40" s="47"/>
-      <c r="D40" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="E40" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="F40" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H40" s="64"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="70" t="s">
+        <v>55</v>
+      </c>
       <c r="J40" s="59"/>
     </row>
-    <row r="41" customFormat="1" ht="31.5" spans="1:10">
+    <row r="41" customFormat="1" ht="15.75" spans="1:10">
       <c r="A41" s="61"/>
       <c r="B41" s="61"/>
       <c r="C41" s="47"/>
       <c r="D41" s="59" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="E41" s="62" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="F41" s="62" t="s">
-        <v>232</v>
-      </c>
-      <c r="G41" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H41" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="J41" s="59" t="s">
-        <v>164</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H41" s="64"/>
+      <c r="J41" s="59"/>
     </row>
     <row r="42" customFormat="1" ht="31.5" spans="1:10">
       <c r="A42" s="61"/>
       <c r="B42" s="61"/>
       <c r="C42" s="47"/>
       <c r="D42" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="E42" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="F42" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="E42" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="F42" s="62" t="s">
+      <c r="G42" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="G42" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H42" s="70" t="s">
-        <v>236</v>
-      </c>
       <c r="J42" s="59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" customFormat="1" ht="31.5" spans="1:10">
@@ -6457,617 +6469,618 @@
       <c r="B43" s="61"/>
       <c r="C43" s="47"/>
       <c r="D43" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="E43" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="F43" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="E43" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="F43" s="62" t="s">
+      <c r="G43" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="H43" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="G43" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H43" s="65" t="s">
-        <v>195</v>
-      </c>
       <c r="J43" s="59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" s="48" customFormat="1" ht="31.5" spans="1:48">
-      <c r="A44" s="51"/>
-      <c r="B44" s="51"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" ht="31.5" spans="1:10">
+      <c r="A44" s="61"/>
+      <c r="B44" s="61"/>
       <c r="C44" s="47"/>
       <c r="D44" s="59" t="s">
         <v>239</v>
       </c>
       <c r="E44" s="62" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F44" s="62" t="s">
         <v>240</v>
       </c>
       <c r="G44" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H44" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="J44" s="59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" s="48" customFormat="1" ht="31.5" spans="1:48">
+      <c r="A45" s="51"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="I44"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="66"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="66"/>
-      <c r="R44" s="66"/>
-      <c r="S44" s="66"/>
-      <c r="T44" s="66"/>
-      <c r="U44" s="66"/>
-      <c r="V44" s="66"/>
-      <c r="W44" s="66"/>
-      <c r="X44" s="66"/>
-      <c r="Y44" s="66"/>
-      <c r="Z44" s="66"/>
-      <c r="AA44" s="66"/>
-      <c r="AB44" s="66"/>
-      <c r="AC44" s="66"/>
-      <c r="AD44" s="66"/>
-      <c r="AE44" s="66"/>
-      <c r="AF44" s="66"/>
-      <c r="AG44" s="66"/>
-      <c r="AH44" s="66"/>
-      <c r="AI44" s="66"/>
-      <c r="AJ44" s="66"/>
-      <c r="AK44" s="66"/>
-      <c r="AL44" s="66"/>
-      <c r="AM44" s="66"/>
-      <c r="AN44" s="66"/>
-      <c r="AO44" s="66"/>
-      <c r="AP44" s="66"/>
-      <c r="AQ44" s="66"/>
-      <c r="AR44" s="66"/>
-      <c r="AS44" s="66"/>
-      <c r="AT44" s="66"/>
-      <c r="AU44" s="66"/>
-      <c r="AV44" s="66"/>
-    </row>
-    <row r="45" ht="31.5" spans="4:10">
-      <c r="D45" s="59" t="s">
+      <c r="E45" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="F45" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="E45" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="F45" s="62" t="s">
+      <c r="G45" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="H45" s="73" t="s">
         <v>243</v>
-      </c>
-      <c r="G45" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H45" s="73" t="s">
-        <v>244</v>
       </c>
       <c r="I45"/>
       <c r="J45" s="10"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="66"/>
+      <c r="P45" s="66"/>
+      <c r="Q45" s="66"/>
+      <c r="R45" s="66"/>
+      <c r="S45" s="66"/>
+      <c r="T45" s="66"/>
+      <c r="U45" s="66"/>
+      <c r="V45" s="66"/>
+      <c r="W45" s="66"/>
+      <c r="X45" s="66"/>
+      <c r="Y45" s="66"/>
+      <c r="Z45" s="66"/>
+      <c r="AA45" s="66"/>
+      <c r="AB45" s="66"/>
+      <c r="AC45" s="66"/>
+      <c r="AD45" s="66"/>
+      <c r="AE45" s="66"/>
+      <c r="AF45" s="66"/>
+      <c r="AG45" s="66"/>
+      <c r="AH45" s="66"/>
+      <c r="AI45" s="66"/>
+      <c r="AJ45" s="66"/>
+      <c r="AK45" s="66"/>
+      <c r="AL45" s="66"/>
+      <c r="AM45" s="66"/>
+      <c r="AN45" s="66"/>
+      <c r="AO45" s="66"/>
+      <c r="AP45" s="66"/>
+      <c r="AQ45" s="66"/>
+      <c r="AR45" s="66"/>
+      <c r="AS45" s="66"/>
+      <c r="AT45" s="66"/>
+      <c r="AU45" s="66"/>
+      <c r="AV45" s="66"/>
     </row>
     <row r="46" ht="31.5" spans="4:10">
       <c r="D46" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="E46" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="F46" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="E46" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="F46" s="62" t="s">
+      <c r="G46" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="H46" s="73" t="s">
         <v>246</v>
       </c>
-      <c r="G46" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H46" s="71" t="s">
+      <c r="I46"/>
+      <c r="J46" s="10"/>
+    </row>
+    <row r="47" ht="31.5" spans="4:10">
+      <c r="D47" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="I46"/>
-      <c r="J46"/>
-    </row>
-    <row r="47" ht="12" customHeight="1" spans="4:10">
-      <c r="D47" s="59" t="s">
+      <c r="E47" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="F47" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="E47" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="F47" s="62" t="s">
+      <c r="G47" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="H47" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="G47" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H47" s="71" t="s">
+      <c r="I47"/>
+      <c r="J47"/>
+    </row>
+    <row r="48" ht="12" customHeight="1" spans="4:10">
+      <c r="D48" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="I47"/>
-      <c r="J47" s="59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" ht="31.5" spans="4:10">
-      <c r="D48" s="59" t="s">
+      <c r="E48" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="F48" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="E48" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="F48" s="62" t="s">
+      <c r="G48" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="H48" s="71" t="s">
         <v>252</v>
-      </c>
-      <c r="G48" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H48" s="73" t="s">
-        <v>253</v>
       </c>
       <c r="I48"/>
       <c r="J48" s="59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" ht="27" customHeight="1" spans="4:10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" ht="31.5" spans="4:10">
       <c r="D49" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="E49" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="F49" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="E49" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="F49" s="62" t="s">
+      <c r="G49" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="H49" s="73" t="s">
         <v>255</v>
       </c>
-      <c r="G49" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H49" s="10" t="s">
+      <c r="I49"/>
+      <c r="J49" s="59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" ht="27" customHeight="1" spans="4:10">
+      <c r="D50" s="59" t="s">
         <v>256</v>
       </c>
-      <c r="I49"/>
-      <c r="J49"/>
-    </row>
-    <row r="50" ht="31.5" spans="4:10">
-      <c r="D50" s="59" t="s">
+      <c r="E50" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="F50" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="E50" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="F50" s="62" t="s">
+      <c r="G50" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="H50" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="G50" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H50" s="71" t="s">
-        <v>259</v>
       </c>
       <c r="I50"/>
       <c r="J50"/>
     </row>
     <row r="51" ht="31.5" spans="4:10">
-      <c r="D51" s="59"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
+      <c r="D51" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="E51" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="F51" s="62" t="s">
+        <v>260</v>
+      </c>
       <c r="G51" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>199</v>
+        <v>101</v>
+      </c>
+      <c r="H51" s="71" t="s">
+        <v>261</v>
       </c>
       <c r="I51"/>
-      <c r="J51" t="s">
+      <c r="J51"/>
+    </row>
+    <row r="52" ht="31.5" spans="4:10">
+      <c r="D52" s="59"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I52"/>
+      <c r="J52" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" ht="14" customHeight="1" spans="4:10">
-      <c r="D52" s="59" t="s">
-        <v>260</v>
-      </c>
-      <c r="E52" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="F52" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="G52" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H52" s="71" t="s">
+    <row r="53" ht="14" customHeight="1" spans="4:10">
+      <c r="D53" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="I52"/>
-      <c r="J52" s="59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" spans="4:10">
-      <c r="D53" s="10" t="s">
+      <c r="E53" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="F53" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="E53" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="F53" s="62" t="s">
+      <c r="G53" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="H53" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="G53" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H53" s="11"/>
       <c r="I53"/>
-      <c r="J53"/>
-    </row>
-    <row r="54" customHeight="1" spans="4:10">
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
+      <c r="J53" s="59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" spans="4:10">
+      <c r="D54" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E54" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="F54" s="62" t="s">
+        <v>266</v>
+      </c>
       <c r="G54" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="H54" s="65" t="s">
-        <v>265</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="H54" s="11"/>
       <c r="I54"/>
-      <c r="J54" t="s">
+      <c r="J54"/>
+    </row>
+    <row r="55" customHeight="1" spans="4:10">
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H55" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="I55"/>
+      <c r="J55" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" s="26" customFormat="1" ht="15.75" spans="3:10">
-      <c r="C55" s="47"/>
-      <c r="D55" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="E55" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="F55" s="62" t="s">
-        <v>268</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H55" s="11"/>
-      <c r="I55"/>
-      <c r="J55" s="10"/>
-    </row>
-    <row r="56" s="26" customFormat="1" ht="21" customHeight="1" spans="3:10">
+    <row r="56" s="26" customFormat="1" ht="15.75" spans="3:10">
       <c r="C56" s="47"/>
       <c r="D56" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E56" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="E56" s="62" t="s">
-        <v>267</v>
-      </c>
       <c r="F56" s="62" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H56" s="72" t="s">
-        <v>195</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="H56" s="11"/>
       <c r="I56"/>
-      <c r="J56" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="57" s="26" customFormat="1" ht="31.5" spans="3:10">
+      <c r="J56" s="10"/>
+    </row>
+    <row r="57" s="26" customFormat="1" ht="21" customHeight="1" spans="3:10">
       <c r="C57" s="47"/>
       <c r="D57" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E57" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="F57" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="E57" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="F57" s="62" t="s">
-        <v>271</v>
-      </c>
       <c r="G57" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H57" s="71" t="s">
-        <v>272</v>
+        <v>101</v>
+      </c>
+      <c r="H57" s="72" t="s">
+        <v>198</v>
       </c>
       <c r="I57"/>
       <c r="J57" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="58" s="26" customFormat="1" ht="14" customHeight="1" spans="3:10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" s="26" customFormat="1" ht="31.5" spans="3:10">
       <c r="C58" s="47"/>
       <c r="D58" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E58" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="F58" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="E58" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="F58" s="62" t="s">
+      <c r="G58" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H58" s="71" t="s">
         <v>274</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H58" s="72" t="s">
-        <v>275</v>
       </c>
       <c r="I58"/>
       <c r="J58" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" spans="4:10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" s="26" customFormat="1" ht="14" customHeight="1" spans="3:10">
+      <c r="C59" s="47"/>
       <c r="D59" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E59" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="F59" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="E59" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="F59" s="62" t="s">
+      <c r="G59" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H59" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="G59" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H59" s="71" t="s">
-        <v>278</v>
-      </c>
       <c r="I59"/>
-      <c r="J59" s="10"/>
+      <c r="J59" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="60" ht="15.75" spans="4:10">
       <c r="D60" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E60" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="F60" s="62" t="s">
         <v>279</v>
       </c>
-      <c r="E60" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="F60" s="62" t="s">
-        <v>240</v>
-      </c>
       <c r="G60" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H60" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="H60" s="71" t="s">
         <v>280</v>
       </c>
       <c r="I60"/>
-      <c r="J60" t="s">
-        <v>164</v>
-      </c>
+      <c r="J60" s="10"/>
     </row>
     <row r="61" ht="15.75" spans="4:10">
       <c r="D61" s="10" t="s">
         <v>281</v>
       </c>
       <c r="E61" s="62" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F61" s="62" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H61" s="71" t="s">
-        <v>247</v>
+        <v>101</v>
+      </c>
+      <c r="H61" s="72" t="s">
+        <v>282</v>
       </c>
       <c r="I61"/>
-      <c r="J61"/>
-    </row>
-    <row r="62" ht="31.5" spans="4:10">
+      <c r="J61" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" spans="4:10">
       <c r="D62" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E62" s="62" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F62" s="62" t="s">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H62" s="72" t="s">
-        <v>283</v>
+        <v>101</v>
+      </c>
+      <c r="H62" s="71" t="s">
+        <v>249</v>
       </c>
       <c r="I62"/>
-      <c r="J62" s="59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="63" s="26" customFormat="1" ht="31.5" spans="3:10">
-      <c r="C63" s="47"/>
+      <c r="J62"/>
+    </row>
+    <row r="63" ht="31.5" spans="4:10">
       <c r="D63" s="10" t="s">
         <v>284</v>
       </c>
       <c r="E63" s="62" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F63" s="62" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H63" s="72" t="s">
         <v>285</v>
       </c>
       <c r="I63"/>
       <c r="J63" s="59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" spans="4:10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" s="26" customFormat="1" ht="31.5" spans="3:10">
+      <c r="C64" s="47"/>
       <c r="D64" s="10" t="s">
         <v>286</v>
       </c>
       <c r="E64" s="62" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F64" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H64" s="72" t="s">
         <v>287</v>
       </c>
-      <c r="G64" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H64" s="71" t="s">
+      <c r="I64"/>
+      <c r="J64" s="59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" spans="4:10">
+      <c r="D65" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="J64" s="10"/>
-    </row>
-    <row r="65" ht="31.5" spans="4:8">
-      <c r="D65" s="10" t="s">
+      <c r="E65" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="F65" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="E65" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="F65" s="62" t="s">
+      <c r="G65" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H65" s="71" t="s">
         <v>290</v>
       </c>
-      <c r="G65" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H65" s="71" t="s">
-        <v>291</v>
-      </c>
+      <c r="J65" s="10"/>
     </row>
     <row r="66" ht="31.5" spans="4:8">
       <c r="D66" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E66" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="F66" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="E66" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="F66" s="62" t="s">
+      <c r="G66" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H66" s="71" t="s">
         <v>293</v>
       </c>
-      <c r="G66" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H66" s="71" t="s">
+    </row>
+    <row r="67" ht="31.5" spans="4:8">
+      <c r="D67" s="10" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="67" customFormat="1" ht="31.5" spans="3:10">
-      <c r="C67" s="56" t="s">
+      <c r="E67" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="F67" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="D67" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="E67" s="59" t="s">
+      <c r="G67" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H67" s="71" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" ht="31.5" spans="3:10">
+      <c r="C68" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="D68" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="F67" s="59" t="s">
+      <c r="E68" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="G67" s="51" t="s">
+      <c r="F68" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="G68" s="51" t="s">
         <v>25</v>
-      </c>
-      <c r="H67" s="10"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" ht="15.75" spans="3:9">
-      <c r="C68" s="47"/>
-      <c r="D68" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="E68" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="F68" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="G68" s="51" t="s">
-        <v>171</v>
       </c>
       <c r="H68" s="10"/>
       <c r="I68" s="59"/>
-    </row>
-    <row r="69" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A69" s="61"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="E69" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="F69" s="59" t="s">
-        <v>174</v>
-      </c>
+      <c r="J68" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" ht="15.75" spans="3:10">
+      <c r="C69" s="56"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
       <c r="G69" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="H69" s="10"/>
+        <v>180</v>
+      </c>
+      <c r="H69" s="72" t="s">
+        <v>181</v>
+      </c>
       <c r="I69" s="59"/>
-    </row>
-    <row r="70" customFormat="1" ht="15.75" spans="1:10">
-      <c r="A70" s="61"/>
-      <c r="B70" s="61"/>
+      <c r="J69" s="66"/>
+    </row>
+    <row r="70" customFormat="1" ht="15.75" spans="3:9">
       <c r="C70" s="47"/>
       <c r="D70" s="59" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E70" s="59" t="s">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="F70" s="59" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G70" s="51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H70" s="10"/>
-      <c r="J70" s="59"/>
-    </row>
-    <row r="71" customFormat="1" ht="15.75" spans="1:10">
+      <c r="I70" s="59"/>
+    </row>
+    <row r="71" customFormat="1" ht="15.75" spans="1:9">
       <c r="A71" s="61"/>
       <c r="B71" s="61"/>
       <c r="C71" s="47"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="62" t="s">
+      <c r="D71" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="F71" s="62" t="s">
-        <v>296</v>
+      <c r="E71" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="F71" s="59" t="s">
+        <v>175</v>
       </c>
       <c r="G71" s="51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H71" s="10"/>
-      <c r="J71" s="59"/>
+      <c r="I71" s="59"/>
     </row>
     <row r="72" customFormat="1" ht="15.75" spans="1:10">
       <c r="A72" s="61"/>
       <c r="B72" s="61"/>
       <c r="C72" s="47"/>
       <c r="D72" s="59" t="s">
-        <v>297</v>
-      </c>
-      <c r="E72" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="F72" s="62" t="s">
-        <v>298</v>
+        <v>176</v>
+      </c>
+      <c r="E72" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="F72" s="59" t="s">
+        <v>177</v>
       </c>
       <c r="G72" s="51" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="H72" s="10"/>
       <c r="J72" s="59"/>
@@ -7076,17 +7089,15 @@
       <c r="A73" s="61"/>
       <c r="B73" s="61"/>
       <c r="C73" s="47"/>
-      <c r="D73" s="59" t="s">
-        <v>177</v>
-      </c>
-      <c r="E73" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="F73" s="59" t="s">
-        <v>178</v>
+      <c r="D73" s="59"/>
+      <c r="E73" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="F73" s="62" t="s">
+        <v>298</v>
       </c>
       <c r="G73" s="51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H73" s="10"/>
       <c r="J73" s="59"/>
@@ -7095,129 +7106,133 @@
       <c r="A74" s="61"/>
       <c r="B74" s="61"/>
       <c r="C74" s="47"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="F74" s="59" t="s">
-        <v>180</v>
+      <c r="D74" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="E74" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="F74" s="62" t="s">
+        <v>300</v>
       </c>
       <c r="G74" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="J74" s="59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" s="26" customFormat="1" ht="15.75" spans="3:10">
+        <v>25</v>
+      </c>
+      <c r="H74" s="10"/>
+      <c r="J74" s="59"/>
+    </row>
+    <row r="75" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A75" s="61"/>
+      <c r="B75" s="61"/>
       <c r="C75" s="47"/>
       <c r="D75" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
+        <v>178</v>
+      </c>
+      <c r="E75" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="F75" s="59" t="s">
+        <v>179</v>
+      </c>
       <c r="G75" s="51" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="H75" s="10"/>
-      <c r="I75" s="66"/>
-      <c r="J75" s="10"/>
-    </row>
-    <row r="76" s="26" customFormat="1" ht="15.75" spans="3:10">
+      <c r="J75" s="59"/>
+    </row>
+    <row r="76" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A76" s="61"/>
+      <c r="B76" s="61"/>
       <c r="C76" s="47"/>
       <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
+      <c r="E76" s="59" t="s">
+        <v>182</v>
+      </c>
       <c r="F76" s="59" t="s">
         <v>183</v>
       </c>
       <c r="G76" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="H76" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="H76" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="I76" s="66"/>
-      <c r="J76" s="10"/>
-    </row>
-    <row r="77" s="26" customFormat="1" ht="31.5" spans="3:10">
+      <c r="J76" s="59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" s="26" customFormat="1" ht="15.75" spans="3:10">
       <c r="C77" s="47"/>
       <c r="D77" s="59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E77" s="59"/>
       <c r="F77" s="59"/>
       <c r="G77" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="H77" s="72" t="s">
-        <v>155</v>
-      </c>
+      <c r="H77" s="10"/>
       <c r="I77" s="66"/>
       <c r="J77" s="10"/>
     </row>
     <row r="78" s="26" customFormat="1" ht="15.75" spans="3:10">
       <c r="C78" s="47"/>
       <c r="D78" s="59"/>
-      <c r="E78" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="F78" s="62" t="s">
-        <v>178</v>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59" t="s">
+        <v>186</v>
       </c>
       <c r="G78" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="H78" s="10"/>
+        <v>187</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>188</v>
+      </c>
       <c r="I78" s="66"/>
       <c r="J78" s="10"/>
     </row>
-    <row r="79" s="26" customFormat="1" ht="15.75" spans="3:10">
+    <row r="79" s="26" customFormat="1" ht="31.5" spans="3:10">
       <c r="C79" s="47"/>
       <c r="D79" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="E79" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="F79" s="62" t="s">
-        <v>188</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
       <c r="G79" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="H79" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="H79" s="72" t="s">
+        <v>156</v>
+      </c>
       <c r="I79" s="66"/>
       <c r="J79" s="10"/>
     </row>
     <row r="80" s="26" customFormat="1" ht="15.75" spans="3:10">
       <c r="C80" s="47"/>
       <c r="D80" s="59"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59" t="s">
-        <v>189</v>
+      <c r="E80" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="F80" s="62" t="s">
+        <v>179</v>
       </c>
       <c r="G80" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="H80" s="10" t="s">
-        <v>190</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H80" s="10"/>
       <c r="I80" s="66"/>
       <c r="J80" s="10"/>
     </row>
-    <row r="81" s="26" customFormat="1" ht="31.5" spans="3:10">
+    <row r="81" s="26" customFormat="1" ht="15.75" spans="3:10">
       <c r="C81" s="47"/>
       <c r="D81" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E81" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="F81" s="62" t="s">
         <v>191</v>
-      </c>
-      <c r="E81" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="F81" s="62" t="s">
-        <v>192</v>
       </c>
       <c r="G81" s="51" t="s">
         <v>25</v>
@@ -7226,86 +7241,78 @@
       <c r="I81" s="66"/>
       <c r="J81" s="10"/>
     </row>
-    <row r="82" customFormat="1" ht="15.75" spans="1:10">
-      <c r="A82" s="61"/>
-      <c r="B82" s="61"/>
+    <row r="82" s="26" customFormat="1" ht="15.75" spans="3:10">
       <c r="C82" s="47"/>
-      <c r="D82" s="59" t="s">
+      <c r="D82" s="59"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="G82" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="H82" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E82" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="F82" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="G82" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="J82" s="59"/>
-    </row>
-    <row r="83" customFormat="1" ht="15.75" spans="1:10">
-      <c r="A83" s="61"/>
-      <c r="B83" s="61"/>
+      <c r="I82" s="66"/>
+      <c r="J82" s="10"/>
+    </row>
+    <row r="83" s="26" customFormat="1" ht="31.5" spans="3:10">
       <c r="C83" s="47"/>
       <c r="D83" s="59" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E83" s="62" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F83" s="62" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G83" s="51" t="s">
         <v>25</v>
       </c>
       <c r="H83" s="10"/>
-      <c r="J83" s="59"/>
-    </row>
-    <row r="84" customFormat="1" ht="31.5" spans="1:10">
+      <c r="I83" s="66"/>
+      <c r="J83" s="10"/>
+    </row>
+    <row r="84" customFormat="1" ht="15.75" spans="1:10">
       <c r="A84" s="61"/>
       <c r="B84" s="61"/>
       <c r="C84" s="47"/>
       <c r="D84" s="59" t="s">
-        <v>299</v>
+        <v>196</v>
       </c>
       <c r="E84" s="62" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="F84" s="62" t="s">
-        <v>202</v>
-      </c>
-      <c r="G84" s="63" t="s">
-        <v>184</v>
+        <v>197</v>
+      </c>
+      <c r="G84" s="51" t="s">
+        <v>18</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J84" s="59"/>
     </row>
-    <row r="85" customFormat="1" ht="31.5" spans="1:10">
+    <row r="85" customFormat="1" ht="15.75" spans="1:10">
       <c r="A85" s="61"/>
       <c r="B85" s="61"/>
       <c r="C85" s="47"/>
       <c r="D85" s="59" t="s">
-        <v>300</v>
+        <v>199</v>
       </c>
       <c r="E85" s="62" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="F85" s="62" t="s">
-        <v>202</v>
-      </c>
-      <c r="G85" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="H85" s="10" t="s">
-        <v>301</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G85" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H85" s="10"/>
       <c r="J85" s="59"/>
     </row>
     <row r="86" customFormat="1" ht="31.5" spans="1:10">
@@ -7313,58 +7320,62 @@
       <c r="B86" s="61"/>
       <c r="C86" s="47"/>
       <c r="D86" s="59" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E86" s="62" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F86" s="62" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G86" s="63" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>303</v>
+        <v>206</v>
       </c>
       <c r="J86" s="59"/>
     </row>
-    <row r="87" customFormat="1" ht="15.75" spans="1:10">
+    <row r="87" customFormat="1" ht="31.5" spans="1:10">
       <c r="A87" s="61"/>
       <c r="B87" s="61"/>
       <c r="C87" s="47"/>
       <c r="D87" s="59" t="s">
-        <v>196</v>
+        <v>302</v>
       </c>
       <c r="E87" s="62" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="F87" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="G87" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="H87" s="10"/>
+        <v>205</v>
+      </c>
+      <c r="G87" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>303</v>
+      </c>
       <c r="J87" s="59"/>
     </row>
-    <row r="88" customFormat="1" ht="15.75" spans="1:10">
+    <row r="88" customFormat="1" ht="31.5" spans="1:10">
       <c r="A88" s="61"/>
       <c r="B88" s="61"/>
       <c r="C88" s="47"/>
       <c r="D88" s="59" t="s">
+        <v>304</v>
+      </c>
+      <c r="E88" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="E88" s="62" t="s">
+      <c r="F88" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="F88" s="62" t="s">
-        <v>206</v>
-      </c>
       <c r="G88" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="H88" s="10"/>
+        <v>187</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>305</v>
+      </c>
       <c r="J88" s="59"/>
     </row>
     <row r="89" customFormat="1" ht="15.75" spans="1:10">
@@ -7372,39 +7383,37 @@
       <c r="B89" s="61"/>
       <c r="C89" s="47"/>
       <c r="D89" s="59" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E89" s="62" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="F89" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="G89" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="H89" s="72" t="s">
-        <v>304</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G89" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H89" s="10"/>
       <c r="J89" s="59"/>
     </row>
     <row r="90" customFormat="1" ht="15.75" spans="1:10">
       <c r="A90" s="61"/>
       <c r="B90" s="61"/>
       <c r="C90" s="47"/>
-      <c r="D90" s="59"/>
+      <c r="D90" s="59" t="s">
+        <v>207</v>
+      </c>
       <c r="E90" s="62" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F90" s="62" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G90" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="H90" s="10" t="s">
-        <v>211</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="H90" s="10"/>
       <c r="J90" s="59"/>
     </row>
     <row r="91" customFormat="1" ht="15.75" spans="1:10">
@@ -7412,19 +7421,19 @@
       <c r="B91" s="61"/>
       <c r="C91" s="47"/>
       <c r="D91" s="59" t="s">
-        <v>305</v>
+        <v>211</v>
       </c>
       <c r="E91" s="62" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="F91" s="62" t="s">
-        <v>306</v>
+        <v>209</v>
       </c>
       <c r="G91" s="63" t="s">
         <v>18</v>
       </c>
       <c r="H91" s="72" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J91" s="59"/>
     </row>
@@ -7432,154 +7441,78 @@
       <c r="A92" s="61"/>
       <c r="B92" s="61"/>
       <c r="C92" s="47"/>
-      <c r="D92" s="59" t="s">
-        <v>196</v>
-      </c>
+      <c r="D92" s="59"/>
       <c r="E92" s="62" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="F92" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="G92" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="G92" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="J92" s="59"/>
+    </row>
+    <row r="93" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A93" s="61"/>
+      <c r="B93" s="61"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="E93" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="F93" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="G93" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" s="72" t="s">
+        <v>309</v>
+      </c>
+      <c r="J93" s="59"/>
+    </row>
+    <row r="94" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A94" s="61"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="47"/>
+      <c r="D94" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="E94" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="F94" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="G94" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="H92" s="10"/>
-      <c r="J92" s="59"/>
-    </row>
-    <row r="93" s="48" customFormat="1" ht="15.75" spans="1:48">
-      <c r="A93" s="51"/>
-      <c r="B93" s="51"/>
-      <c r="C93" s="47"/>
-      <c r="D93" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E93" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="F93" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H93" s="29"/>
-      <c r="I93"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="66"/>
-      <c r="L93" s="66"/>
-      <c r="M93" s="66"/>
-      <c r="N93" s="66"/>
-      <c r="O93" s="66"/>
-      <c r="P93" s="66"/>
-      <c r="Q93" s="66"/>
-      <c r="R93" s="66"/>
-      <c r="S93" s="66"/>
-      <c r="T93" s="66"/>
-      <c r="U93" s="66"/>
-      <c r="V93" s="66"/>
-      <c r="W93" s="66"/>
-      <c r="X93" s="66"/>
-      <c r="Y93" s="66"/>
-      <c r="Z93" s="66"/>
-      <c r="AA93" s="66"/>
-      <c r="AB93" s="66"/>
-      <c r="AC93" s="66"/>
-      <c r="AD93" s="66"/>
-      <c r="AE93" s="66"/>
-      <c r="AF93" s="66"/>
-      <c r="AG93" s="66"/>
-      <c r="AH93" s="66"/>
-      <c r="AI93" s="66"/>
-      <c r="AJ93" s="66"/>
-      <c r="AK93" s="66"/>
-      <c r="AL93" s="66"/>
-      <c r="AM93" s="66"/>
-      <c r="AN93" s="66"/>
-      <c r="AO93" s="66"/>
-      <c r="AP93" s="66"/>
-      <c r="AQ93" s="66"/>
-      <c r="AR93" s="66"/>
-      <c r="AS93" s="66"/>
-      <c r="AT93" s="66"/>
-      <c r="AU93" s="66"/>
-      <c r="AV93" s="66"/>
-    </row>
-    <row r="94" s="48" customFormat="1" ht="15.75" spans="1:48">
-      <c r="A94" s="51"/>
-      <c r="B94" s="51"/>
-      <c r="C94" s="47"/>
-      <c r="D94" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="E94" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="F94" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>171</v>
-      </c>
       <c r="H94" s="10"/>
-      <c r="I94"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="66"/>
-      <c r="L94" s="66"/>
-      <c r="M94" s="66"/>
-      <c r="N94" s="66"/>
-      <c r="O94" s="66"/>
-      <c r="P94" s="66"/>
-      <c r="Q94" s="66"/>
-      <c r="R94" s="66"/>
-      <c r="S94" s="66"/>
-      <c r="T94" s="66"/>
-      <c r="U94" s="66"/>
-      <c r="V94" s="66"/>
-      <c r="W94" s="66"/>
-      <c r="X94" s="66"/>
-      <c r="Y94" s="66"/>
-      <c r="Z94" s="66"/>
-      <c r="AA94" s="66"/>
-      <c r="AB94" s="66"/>
-      <c r="AC94" s="66"/>
-      <c r="AD94" s="66"/>
-      <c r="AE94" s="66"/>
-      <c r="AF94" s="66"/>
-      <c r="AG94" s="66"/>
-      <c r="AH94" s="66"/>
-      <c r="AI94" s="66"/>
-      <c r="AJ94" s="66"/>
-      <c r="AK94" s="66"/>
-      <c r="AL94" s="66"/>
-      <c r="AM94" s="66"/>
-      <c r="AN94" s="66"/>
-      <c r="AO94" s="66"/>
-      <c r="AP94" s="66"/>
-      <c r="AQ94" s="66"/>
-      <c r="AR94" s="66"/>
-      <c r="AS94" s="66"/>
-      <c r="AT94" s="66"/>
-      <c r="AU94" s="66"/>
-      <c r="AV94" s="66"/>
+      <c r="J94" s="59"/>
     </row>
     <row r="95" s="48" customFormat="1" ht="15.75" spans="1:48">
       <c r="A95" s="51"/>
       <c r="B95" s="51"/>
       <c r="C95" s="47"/>
       <c r="D95" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E95" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="F95" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="E95" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="F95" s="62" t="s">
-        <v>218</v>
-      </c>
       <c r="G95" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H95" s="11"/>
+        <v>172</v>
+      </c>
+      <c r="H95" s="29"/>
       <c r="I95"/>
       <c r="J95" s="10"/>
       <c r="K95" s="66"/>
@@ -7626,18 +7559,18 @@
       <c r="B96" s="51"/>
       <c r="C96" s="47"/>
       <c r="D96" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E96" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="F96" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="E96" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="F96" s="62" t="s">
-        <v>197</v>
-      </c>
       <c r="G96" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H96" s="11"/>
+        <v>172</v>
+      </c>
+      <c r="H96" s="10"/>
       <c r="I96"/>
       <c r="J96" s="10"/>
       <c r="K96" s="66"/>
@@ -7687,17 +7620,15 @@
         <v>220</v>
       </c>
       <c r="E97" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="F97" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="F97" s="62" t="s">
-        <v>222</v>
-      </c>
       <c r="G97" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H97" s="10" t="s">
-        <v>223</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="H97" s="11"/>
       <c r="I97"/>
       <c r="J97" s="10"/>
       <c r="K97" s="66"/>
@@ -7744,20 +7675,18 @@
       <c r="B98" s="51"/>
       <c r="C98" s="47"/>
       <c r="D98" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E98" s="62" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="F98" s="62" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H98" s="72" t="s">
-        <v>308</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="H98" s="11"/>
       <c r="I98"/>
       <c r="J98" s="10"/>
       <c r="K98" s="66"/>
@@ -7799,645 +7728,751 @@
       <c r="AU98" s="66"/>
       <c r="AV98" s="66"/>
     </row>
-    <row r="99" customFormat="1" ht="15.75" spans="1:10">
-      <c r="A99" s="61"/>
-      <c r="B99" s="61"/>
+    <row r="99" s="48" customFormat="1" ht="15.75" spans="1:48">
+      <c r="A99" s="51"/>
+      <c r="B99" s="51"/>
       <c r="C99" s="47"/>
-      <c r="D99" s="59" t="s">
+      <c r="D99" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E99" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="F99" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="I99"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="66"/>
+      <c r="L99" s="66"/>
+      <c r="M99" s="66"/>
+      <c r="N99" s="66"/>
+      <c r="O99" s="66"/>
+      <c r="P99" s="66"/>
+      <c r="Q99" s="66"/>
+      <c r="R99" s="66"/>
+      <c r="S99" s="66"/>
+      <c r="T99" s="66"/>
+      <c r="U99" s="66"/>
+      <c r="V99" s="66"/>
+      <c r="W99" s="66"/>
+      <c r="X99" s="66"/>
+      <c r="Y99" s="66"/>
+      <c r="Z99" s="66"/>
+      <c r="AA99" s="66"/>
+      <c r="AB99" s="66"/>
+      <c r="AC99" s="66"/>
+      <c r="AD99" s="66"/>
+      <c r="AE99" s="66"/>
+      <c r="AF99" s="66"/>
+      <c r="AG99" s="66"/>
+      <c r="AH99" s="66"/>
+      <c r="AI99" s="66"/>
+      <c r="AJ99" s="66"/>
+      <c r="AK99" s="66"/>
+      <c r="AL99" s="66"/>
+      <c r="AM99" s="66"/>
+      <c r="AN99" s="66"/>
+      <c r="AO99" s="66"/>
+      <c r="AP99" s="66"/>
+      <c r="AQ99" s="66"/>
+      <c r="AR99" s="66"/>
+      <c r="AS99" s="66"/>
+      <c r="AT99" s="66"/>
+      <c r="AU99" s="66"/>
+      <c r="AV99" s="66"/>
+    </row>
+    <row r="100" s="48" customFormat="1" ht="15.75" spans="1:48">
+      <c r="A100" s="51"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="E99" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="F99" s="62" t="s">
+      <c r="E100" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="F100" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="G99" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="H99" s="64"/>
-      <c r="J99" s="59"/>
-    </row>
-    <row r="100" customFormat="1" ht="15.75" spans="1:10">
-      <c r="A100" s="61"/>
-      <c r="B100" s="61"/>
-      <c r="C100" s="47"/>
-      <c r="D100" s="59"/>
-      <c r="E100" s="62"/>
-      <c r="F100" s="62"/>
-      <c r="G100" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="H100" s="70" t="s">
-        <v>229</v>
-      </c>
-      <c r="J100" s="59"/>
+      <c r="G100" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="I100"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="66"/>
+      <c r="L100" s="66"/>
+      <c r="M100" s="66"/>
+      <c r="N100" s="66"/>
+      <c r="O100" s="66"/>
+      <c r="P100" s="66"/>
+      <c r="Q100" s="66"/>
+      <c r="R100" s="66"/>
+      <c r="S100" s="66"/>
+      <c r="T100" s="66"/>
+      <c r="U100" s="66"/>
+      <c r="V100" s="66"/>
+      <c r="W100" s="66"/>
+      <c r="X100" s="66"/>
+      <c r="Y100" s="66"/>
+      <c r="Z100" s="66"/>
+      <c r="AA100" s="66"/>
+      <c r="AB100" s="66"/>
+      <c r="AC100" s="66"/>
+      <c r="AD100" s="66"/>
+      <c r="AE100" s="66"/>
+      <c r="AF100" s="66"/>
+      <c r="AG100" s="66"/>
+      <c r="AH100" s="66"/>
+      <c r="AI100" s="66"/>
+      <c r="AJ100" s="66"/>
+      <c r="AK100" s="66"/>
+      <c r="AL100" s="66"/>
+      <c r="AM100" s="66"/>
+      <c r="AN100" s="66"/>
+      <c r="AO100" s="66"/>
+      <c r="AP100" s="66"/>
+      <c r="AQ100" s="66"/>
+      <c r="AR100" s="66"/>
+      <c r="AS100" s="66"/>
+      <c r="AT100" s="66"/>
+      <c r="AU100" s="66"/>
+      <c r="AV100" s="66"/>
     </row>
     <row r="101" customFormat="1" ht="15.75" spans="1:10">
       <c r="A101" s="61"/>
       <c r="B101" s="61"/>
       <c r="C101" s="47"/>
       <c r="D101" s="59" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="E101" s="62" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="F101" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>171</v>
+        <v>231</v>
+      </c>
+      <c r="G101" s="63" t="s">
+        <v>172</v>
       </c>
       <c r="H101" s="64"/>
       <c r="J101" s="59"/>
     </row>
-    <row r="102" customFormat="1" ht="31.5" spans="1:10">
+    <row r="102" customFormat="1" ht="15.75" spans="1:10">
       <c r="A102" s="61"/>
       <c r="B102" s="61"/>
       <c r="C102" s="47"/>
-      <c r="D102" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="E102" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="F102" s="62" t="s">
-        <v>232</v>
-      </c>
+      <c r="D102" s="59"/>
+      <c r="E102" s="62"/>
+      <c r="F102" s="62"/>
       <c r="G102" s="63" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="H102" s="70" t="s">
-        <v>309</v>
-      </c>
-      <c r="J102" s="59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="103" customFormat="1" ht="31.5" spans="1:10">
+        <v>55</v>
+      </c>
+      <c r="J102" s="59"/>
+    </row>
+    <row r="103" customFormat="1" ht="15.75" spans="1:10">
       <c r="A103" s="61"/>
       <c r="B103" s="61"/>
       <c r="C103" s="47"/>
       <c r="D103" s="59" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="E103" s="62" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="F103" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="G103" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H103" s="70" t="s">
-        <v>310</v>
-      </c>
-      <c r="J103" s="59" t="s">
-        <v>164</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H103" s="64"/>
+      <c r="J103" s="59"/>
     </row>
     <row r="104" customFormat="1" ht="31.5" spans="1:10">
       <c r="A104" s="61"/>
       <c r="B104" s="61"/>
       <c r="C104" s="47"/>
       <c r="D104" s="59" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E104" s="62" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F104" s="62" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G104" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H104" s="65" t="s">
-        <v>195</v>
+        <v>101</v>
+      </c>
+      <c r="H104" s="70" t="s">
+        <v>311</v>
       </c>
       <c r="J104" s="59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="105" s="48" customFormat="1" ht="31.5" spans="1:48">
-      <c r="A105" s="51"/>
-      <c r="B105" s="51"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="105" customFormat="1" ht="31.5" spans="1:10">
+      <c r="A105" s="61"/>
+      <c r="B105" s="61"/>
       <c r="C105" s="47"/>
       <c r="D105" s="59" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E105" s="62" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F105" s="62" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G105" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H105" s="73" t="s">
-        <v>241</v>
-      </c>
-      <c r="I105"/>
-      <c r="J105" s="10"/>
-      <c r="K105" s="66"/>
-      <c r="L105" s="66"/>
-      <c r="M105" s="66"/>
-      <c r="N105" s="66"/>
-      <c r="O105" s="66"/>
-      <c r="P105" s="66"/>
-      <c r="Q105" s="66"/>
-      <c r="R105" s="66"/>
-      <c r="S105" s="66"/>
-      <c r="T105" s="66"/>
-      <c r="U105" s="66"/>
-      <c r="V105" s="66"/>
-      <c r="W105" s="66"/>
-      <c r="X105" s="66"/>
-      <c r="Y105" s="66"/>
-      <c r="Z105" s="66"/>
-      <c r="AA105" s="66"/>
-      <c r="AB105" s="66"/>
-      <c r="AC105" s="66"/>
-      <c r="AD105" s="66"/>
-      <c r="AE105" s="66"/>
-      <c r="AF105" s="66"/>
-      <c r="AG105" s="66"/>
-      <c r="AH105" s="66"/>
-      <c r="AI105" s="66"/>
-      <c r="AJ105" s="66"/>
-      <c r="AK105" s="66"/>
-      <c r="AL105" s="66"/>
-      <c r="AM105" s="66"/>
-      <c r="AN105" s="66"/>
-      <c r="AO105" s="66"/>
-      <c r="AP105" s="66"/>
-      <c r="AQ105" s="66"/>
-      <c r="AR105" s="66"/>
-      <c r="AS105" s="66"/>
-      <c r="AT105" s="66"/>
-      <c r="AU105" s="66"/>
-      <c r="AV105" s="66"/>
-    </row>
-    <row r="106" s="26" customFormat="1" ht="31.5" spans="3:10">
+        <v>101</v>
+      </c>
+      <c r="H105" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="J105" s="59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="106" customFormat="1" ht="31.5" spans="1:10">
+      <c r="A106" s="61"/>
+      <c r="B106" s="61"/>
       <c r="C106" s="47"/>
       <c r="D106" s="59" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E106" s="62" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F106" s="62" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G106" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H106" s="73" t="s">
-        <v>244</v>
-      </c>
-      <c r="I106"/>
-      <c r="J106" s="10"/>
-    </row>
-    <row r="107" s="26" customFormat="1" ht="31.5" spans="3:10">
+        <v>101</v>
+      </c>
+      <c r="H106" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="J106" s="59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" s="48" customFormat="1" ht="31.5" spans="1:48">
+      <c r="A107" s="51"/>
+      <c r="B107" s="51"/>
       <c r="C107" s="47"/>
       <c r="D107" s="59" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E107" s="62" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F107" s="62" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G107" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H107" s="71" t="s">
-        <v>298</v>
+        <v>101</v>
+      </c>
+      <c r="H107" s="73" t="s">
+        <v>243</v>
       </c>
       <c r="I107"/>
-      <c r="J107"/>
-    </row>
-    <row r="108" s="26" customFormat="1" ht="12" customHeight="1" spans="3:10">
+      <c r="J107" s="10"/>
+      <c r="K107" s="66"/>
+      <c r="L107" s="66"/>
+      <c r="M107" s="66"/>
+      <c r="N107" s="66"/>
+      <c r="O107" s="66"/>
+      <c r="P107" s="66"/>
+      <c r="Q107" s="66"/>
+      <c r="R107" s="66"/>
+      <c r="S107" s="66"/>
+      <c r="T107" s="66"/>
+      <c r="U107" s="66"/>
+      <c r="V107" s="66"/>
+      <c r="W107" s="66"/>
+      <c r="X107" s="66"/>
+      <c r="Y107" s="66"/>
+      <c r="Z107" s="66"/>
+      <c r="AA107" s="66"/>
+      <c r="AB107" s="66"/>
+      <c r="AC107" s="66"/>
+      <c r="AD107" s="66"/>
+      <c r="AE107" s="66"/>
+      <c r="AF107" s="66"/>
+      <c r="AG107" s="66"/>
+      <c r="AH107" s="66"/>
+      <c r="AI107" s="66"/>
+      <c r="AJ107" s="66"/>
+      <c r="AK107" s="66"/>
+      <c r="AL107" s="66"/>
+      <c r="AM107" s="66"/>
+      <c r="AN107" s="66"/>
+      <c r="AO107" s="66"/>
+      <c r="AP107" s="66"/>
+      <c r="AQ107" s="66"/>
+      <c r="AR107" s="66"/>
+      <c r="AS107" s="66"/>
+      <c r="AT107" s="66"/>
+      <c r="AU107" s="66"/>
+      <c r="AV107" s="66"/>
+    </row>
+    <row r="108" s="26" customFormat="1" ht="31.5" spans="3:10">
       <c r="C108" s="47"/>
       <c r="D108" s="59" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E108" s="62" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F108" s="62" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G108" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H108" s="71" t="s">
-        <v>250</v>
+        <v>101</v>
+      </c>
+      <c r="H108" s="73" t="s">
+        <v>246</v>
       </c>
       <c r="I108"/>
-      <c r="J108" s="59" t="s">
-        <v>164</v>
-      </c>
+      <c r="J108" s="10"/>
     </row>
     <row r="109" s="26" customFormat="1" ht="31.5" spans="3:10">
       <c r="C109" s="47"/>
       <c r="D109" s="59" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E109" s="62" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F109" s="62" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G109" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H109" s="73" t="s">
-        <v>253</v>
+        <v>101</v>
+      </c>
+      <c r="H109" s="71" t="s">
+        <v>300</v>
       </c>
       <c r="I109"/>
-      <c r="J109" s="59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="110" s="26" customFormat="1" ht="27" customHeight="1" spans="3:10">
+      <c r="J109"/>
+    </row>
+    <row r="110" s="26" customFormat="1" ht="12" customHeight="1" spans="3:10">
       <c r="C110" s="47"/>
       <c r="D110" s="59" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E110" s="62" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F110" s="62" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G110" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H110" s="72" t="s">
-        <v>311</v>
+        <v>101</v>
+      </c>
+      <c r="H110" s="71" t="s">
+        <v>252</v>
       </c>
       <c r="I110"/>
-      <c r="J110"/>
+      <c r="J110" s="59" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="111" s="26" customFormat="1" ht="31.5" spans="3:10">
       <c r="C111" s="47"/>
       <c r="D111" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="E111" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="F111" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="G111" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="H111" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="I111"/>
+      <c r="J111" s="59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="112" s="26" customFormat="1" ht="27" customHeight="1" spans="3:10">
+      <c r="C112" s="47"/>
+      <c r="D112" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="E112" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="F112" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="E111" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="F111" s="62" t="s">
-        <v>258</v>
-      </c>
-      <c r="G111" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H111" s="71" t="s">
-        <v>259</v>
-      </c>
-      <c r="I111"/>
-      <c r="J111"/>
-    </row>
-    <row r="112" s="26" customFormat="1" ht="31.5" spans="3:10">
-      <c r="C112" s="47"/>
-      <c r="D112" s="59"/>
-      <c r="E112" s="62"/>
-      <c r="F112" s="62"/>
       <c r="G112" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="H112" s="11" t="s">
-        <v>199</v>
+        <v>101</v>
+      </c>
+      <c r="H112" s="72" t="s">
+        <v>313</v>
       </c>
       <c r="I112"/>
-      <c r="J112" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="113" s="26" customFormat="1" ht="14" customHeight="1" spans="3:10">
+      <c r="J112"/>
+    </row>
+    <row r="113" s="26" customFormat="1" ht="31.5" spans="3:10">
       <c r="C113" s="47"/>
       <c r="D113" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="E113" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="F113" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="E113" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="F113" s="62" t="s">
+      <c r="G113" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="H113" s="71" t="s">
         <v>261</v>
       </c>
-      <c r="G113" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="H113" s="71" t="s">
+      <c r="I113"/>
+      <c r="J113"/>
+    </row>
+    <row r="114" s="26" customFormat="1" ht="31.5" spans="3:10">
+      <c r="C114" s="47"/>
+      <c r="D114" s="59"/>
+      <c r="E114" s="62"/>
+      <c r="F114" s="62"/>
+      <c r="G114" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I114"/>
+      <c r="J114" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" s="26" customFormat="1" ht="14" customHeight="1" spans="3:10">
+      <c r="C115" s="47"/>
+      <c r="D115" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="I113"/>
-      <c r="J113" s="59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="114" s="26" customFormat="1" ht="15.75" spans="3:10">
-      <c r="C114" s="47"/>
-      <c r="D114" s="10" t="s">
+      <c r="E115" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="F115" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="E114" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="F114" s="62" t="s">
+      <c r="G115" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="H115" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="G114" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H114" s="11"/>
-      <c r="I114"/>
-      <c r="J114"/>
-    </row>
-    <row r="115" s="26" customFormat="1" customHeight="1" spans="3:10">
-      <c r="C115" s="47"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="H115" s="65" t="s">
-        <v>265</v>
-      </c>
       <c r="I115"/>
-      <c r="J115" t="s">
-        <v>31</v>
+      <c r="J115" s="59" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="116" s="26" customFormat="1" ht="15.75" spans="3:10">
       <c r="C116" s="47"/>
       <c r="D116" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E116" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="F116" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="E116" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="F116" s="62" t="s">
-        <v>268</v>
-      </c>
       <c r="G116" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H116" s="11"/>
       <c r="I116"/>
-      <c r="J116" s="10"/>
-    </row>
-    <row r="117" s="26" customFormat="1" ht="21" customHeight="1" spans="3:10">
+      <c r="J116"/>
+    </row>
+    <row r="117" s="26" customFormat="1" customHeight="1" spans="3:10">
       <c r="C117" s="47"/>
-      <c r="D117" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="E117" s="62" t="s">
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H117" s="65" t="s">
         <v>267</v>
-      </c>
-      <c r="F117" s="62" t="s">
-        <v>268</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H117" s="72" t="s">
-        <v>195</v>
       </c>
       <c r="I117"/>
       <c r="J117" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="118" s="26" customFormat="1" ht="31.5" spans="3:10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" s="26" customFormat="1" ht="15.75" spans="3:10">
       <c r="C118" s="47"/>
       <c r="D118" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E118" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="F118" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="E118" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="F118" s="62" t="s">
-        <v>271</v>
-      </c>
       <c r="G118" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H118" s="71" t="s">
-        <v>312</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="H118" s="11"/>
       <c r="I118"/>
-      <c r="J118" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="119" s="26" customFormat="1" ht="14" customHeight="1" spans="3:10">
+      <c r="J118" s="10"/>
+    </row>
+    <row r="119" s="26" customFormat="1" ht="21" customHeight="1" spans="3:10">
       <c r="C119" s="47"/>
       <c r="D119" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E119" s="62" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F119" s="62" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H119" s="72" t="s">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="I119"/>
       <c r="J119" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="120" s="26" customFormat="1" ht="15.75" spans="3:10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" s="26" customFormat="1" ht="31.5" spans="3:10">
       <c r="C120" s="47"/>
       <c r="D120" s="10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E120" s="62" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F120" s="62" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H120" s="71" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="I120"/>
-      <c r="J120" s="10"/>
-    </row>
-    <row r="121" s="26" customFormat="1" ht="15.75" spans="3:10">
+      <c r="J120" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="121" s="26" customFormat="1" ht="14" customHeight="1" spans="3:10">
       <c r="C121" s="47"/>
       <c r="D121" s="10" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E121" s="62" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F121" s="62" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H121" s="72" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="I121"/>
       <c r="J121" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122" s="26" customFormat="1" ht="15.75" spans="3:10">
       <c r="C122" s="47"/>
       <c r="D122" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E122" s="62" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F122" s="62" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H122" s="71" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="I122"/>
-      <c r="J122"/>
-    </row>
-    <row r="123" s="26" customFormat="1" ht="31.5" spans="3:10">
+      <c r="J122" s="10"/>
+    </row>
+    <row r="123" s="26" customFormat="1" ht="15.75" spans="3:10">
       <c r="C123" s="47"/>
       <c r="D123" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E123" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="F123" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H123" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="E123" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="F123" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="G123" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H123" s="72" t="s">
-        <v>283</v>
-      </c>
       <c r="I123"/>
-      <c r="J123" s="59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="124" s="26" customFormat="1" ht="31.5" spans="3:10">
+      <c r="J123" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="124" s="26" customFormat="1" ht="15.75" spans="3:10">
       <c r="C124" s="47"/>
       <c r="D124" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E124" s="62" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F124" s="62" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H124" s="72" t="s">
-        <v>285</v>
+        <v>101</v>
+      </c>
+      <c r="H124" s="71" t="s">
+        <v>300</v>
       </c>
       <c r="I124"/>
-      <c r="J124" s="59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="125" s="26" customFormat="1" ht="15.75" spans="3:10">
+      <c r="J124"/>
+    </row>
+    <row r="125" s="26" customFormat="1" ht="31.5" spans="3:10">
       <c r="C125" s="47"/>
       <c r="D125" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E125" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="F125" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H125" s="72" t="s">
+        <v>285</v>
+      </c>
+      <c r="I125"/>
+      <c r="J125" s="59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" s="26" customFormat="1" ht="31.5" spans="3:10">
+      <c r="C126" s="47"/>
+      <c r="D126" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="E125" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="F125" s="62" t="s">
+      <c r="E126" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="F126" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H126" s="72" t="s">
         <v>287</v>
       </c>
-      <c r="G125" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H125" s="71" t="s">
+      <c r="I126"/>
+      <c r="J126" s="59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="127" s="26" customFormat="1" ht="15.75" spans="3:10">
+      <c r="C127" s="47"/>
+      <c r="D127" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="J125" s="10"/>
-    </row>
-    <row r="126" ht="31.5" spans="4:8">
-      <c r="D126" s="10" t="s">
+      <c r="E127" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="F127" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="E126" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="F126" s="62" t="s">
+      <c r="G127" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H127" s="71" t="s">
         <v>290</v>
       </c>
-      <c r="G126" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H126" s="71" t="s">
+      <c r="J127" s="10"/>
+    </row>
+    <row r="128" ht="31.5" spans="4:8">
+      <c r="D128" s="10" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="127" ht="31.5" spans="4:8">
-      <c r="D127" s="10" t="s">
+      <c r="E128" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="F128" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="E127" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="F127" s="62" t="s">
+      <c r="G128" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H128" s="71" t="s">
         <v>293</v>
       </c>
-      <c r="G127" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H127" s="71" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="128" ht="15.75" spans="4:8">
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="10"/>
-    </row>
-    <row r="129" ht="15.75" spans="4:8">
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="11"/>
+    </row>
+    <row r="129" ht="31.5" spans="4:8">
+      <c r="D129" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E129" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="F129" s="62" t="s">
+        <v>295</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H129" s="71" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="130" ht="15.75" spans="4:8">
       <c r="D130" s="10"/>
       <c r="E130" s="10"/>
-      <c r="F130" s="67"/>
+      <c r="F130" s="10"/>
       <c r="G130" s="9"/>
       <c r="H130" s="10"/>
     </row>
@@ -8446,12 +8481,12 @@
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
       <c r="G131" s="9"/>
-      <c r="H131" s="10"/>
+      <c r="H131" s="11"/>
     </row>
     <row r="132" ht="15.75" spans="4:8">
       <c r="D132" s="10"/>
       <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
+      <c r="F132" s="67"/>
       <c r="G132" s="9"/>
       <c r="H132" s="10"/>
     </row>
@@ -8469,110 +8504,24 @@
       <c r="G134" s="9"/>
       <c r="H134" s="10"/>
     </row>
-    <row r="135" ht="15.75" spans="7:7">
+    <row r="135" ht="15.75" spans="4:8">
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
       <c r="G135" s="9"/>
-    </row>
-    <row r="136" s="48" customFormat="1" ht="15.75" spans="1:48">
-      <c r="A136" s="51"/>
-      <c r="B136" s="51"/>
-      <c r="C136" s="47"/>
+      <c r="H135" s="10"/>
+    </row>
+    <row r="136" ht="15.75" spans="4:8">
       <c r="D136" s="10"/>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
       <c r="G136" s="9"/>
       <c r="H136" s="10"/>
-      <c r="I136"/>
-      <c r="J136" s="10"/>
-      <c r="K136" s="66"/>
-      <c r="L136" s="66"/>
-      <c r="M136" s="66"/>
-      <c r="N136" s="66"/>
-      <c r="O136" s="66"/>
-      <c r="P136" s="66"/>
-      <c r="Q136" s="66"/>
-      <c r="R136" s="66"/>
-      <c r="S136" s="66"/>
-      <c r="T136" s="66"/>
-      <c r="U136" s="66"/>
-      <c r="V136" s="66"/>
-      <c r="W136" s="66"/>
-      <c r="X136" s="66"/>
-      <c r="Y136" s="66"/>
-      <c r="Z136" s="66"/>
-      <c r="AA136" s="66"/>
-      <c r="AB136" s="66"/>
-      <c r="AC136" s="66"/>
-      <c r="AD136" s="66"/>
-      <c r="AE136" s="66"/>
-      <c r="AF136" s="66"/>
-      <c r="AG136" s="66"/>
-      <c r="AH136" s="66"/>
-      <c r="AI136" s="66"/>
-      <c r="AJ136" s="66"/>
-      <c r="AK136" s="66"/>
-      <c r="AL136" s="66"/>
-      <c r="AM136" s="66"/>
-      <c r="AN136" s="66"/>
-      <c r="AO136" s="66"/>
-      <c r="AP136" s="66"/>
-      <c r="AQ136" s="66"/>
-      <c r="AR136" s="66"/>
-      <c r="AS136" s="66"/>
-      <c r="AT136" s="66"/>
-      <c r="AU136" s="66"/>
-      <c r="AV136" s="66"/>
-    </row>
-    <row r="137" s="48" customFormat="1" ht="15.75" spans="1:48">
-      <c r="A137" s="51"/>
-      <c r="B137" s="51"/>
-      <c r="C137" s="47"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
+    </row>
+    <row r="137" ht="15.75" spans="7:7">
       <c r="G137" s="9"/>
-      <c r="H137" s="10"/>
-      <c r="I137"/>
-      <c r="J137" s="10"/>
-      <c r="K137" s="66"/>
-      <c r="L137" s="66"/>
-      <c r="M137" s="66"/>
-      <c r="N137" s="66"/>
-      <c r="O137" s="66"/>
-      <c r="P137" s="66"/>
-      <c r="Q137" s="66"/>
-      <c r="R137" s="66"/>
-      <c r="S137" s="66"/>
-      <c r="T137" s="66"/>
-      <c r="U137" s="66"/>
-      <c r="V137" s="66"/>
-      <c r="W137" s="66"/>
-      <c r="X137" s="66"/>
-      <c r="Y137" s="66"/>
-      <c r="Z137" s="66"/>
-      <c r="AA137" s="66"/>
-      <c r="AB137" s="66"/>
-      <c r="AC137" s="66"/>
-      <c r="AD137" s="66"/>
-      <c r="AE137" s="66"/>
-      <c r="AF137" s="66"/>
-      <c r="AG137" s="66"/>
-      <c r="AH137" s="66"/>
-      <c r="AI137" s="66"/>
-      <c r="AJ137" s="66"/>
-      <c r="AK137" s="66"/>
-      <c r="AL137" s="66"/>
-      <c r="AM137" s="66"/>
-      <c r="AN137" s="66"/>
-      <c r="AO137" s="66"/>
-      <c r="AP137" s="66"/>
-      <c r="AQ137" s="66"/>
-      <c r="AR137" s="66"/>
-      <c r="AS137" s="66"/>
-      <c r="AT137" s="66"/>
-      <c r="AU137" s="66"/>
-      <c r="AV137" s="66"/>
-    </row>
-    <row r="138" customFormat="1" ht="15.75" spans="1:10">
+    </row>
+    <row r="138" s="48" customFormat="1" ht="15.75" spans="1:48">
       <c r="A138" s="51"/>
       <c r="B138" s="51"/>
       <c r="C138" s="47"/>
@@ -8581,9 +8530,48 @@
       <c r="F138" s="10"/>
       <c r="G138" s="9"/>
       <c r="H138" s="10"/>
+      <c r="I138"/>
       <c r="J138" s="10"/>
-    </row>
-    <row r="139" customFormat="1" ht="15.75" spans="1:10">
+      <c r="K138" s="66"/>
+      <c r="L138" s="66"/>
+      <c r="M138" s="66"/>
+      <c r="N138" s="66"/>
+      <c r="O138" s="66"/>
+      <c r="P138" s="66"/>
+      <c r="Q138" s="66"/>
+      <c r="R138" s="66"/>
+      <c r="S138" s="66"/>
+      <c r="T138" s="66"/>
+      <c r="U138" s="66"/>
+      <c r="V138" s="66"/>
+      <c r="W138" s="66"/>
+      <c r="X138" s="66"/>
+      <c r="Y138" s="66"/>
+      <c r="Z138" s="66"/>
+      <c r="AA138" s="66"/>
+      <c r="AB138" s="66"/>
+      <c r="AC138" s="66"/>
+      <c r="AD138" s="66"/>
+      <c r="AE138" s="66"/>
+      <c r="AF138" s="66"/>
+      <c r="AG138" s="66"/>
+      <c r="AH138" s="66"/>
+      <c r="AI138" s="66"/>
+      <c r="AJ138" s="66"/>
+      <c r="AK138" s="66"/>
+      <c r="AL138" s="66"/>
+      <c r="AM138" s="66"/>
+      <c r="AN138" s="66"/>
+      <c r="AO138" s="66"/>
+      <c r="AP138" s="66"/>
+      <c r="AQ138" s="66"/>
+      <c r="AR138" s="66"/>
+      <c r="AS138" s="66"/>
+      <c r="AT138" s="66"/>
+      <c r="AU138" s="66"/>
+      <c r="AV138" s="66"/>
+    </row>
+    <row r="139" s="48" customFormat="1" ht="15.75" spans="1:48">
       <c r="A139" s="51"/>
       <c r="B139" s="51"/>
       <c r="C139" s="47"/>
@@ -8592,7 +8580,46 @@
       <c r="F139" s="10"/>
       <c r="G139" s="9"/>
       <c r="H139" s="10"/>
+      <c r="I139"/>
       <c r="J139" s="10"/>
+      <c r="K139" s="66"/>
+      <c r="L139" s="66"/>
+      <c r="M139" s="66"/>
+      <c r="N139" s="66"/>
+      <c r="O139" s="66"/>
+      <c r="P139" s="66"/>
+      <c r="Q139" s="66"/>
+      <c r="R139" s="66"/>
+      <c r="S139" s="66"/>
+      <c r="T139" s="66"/>
+      <c r="U139" s="66"/>
+      <c r="V139" s="66"/>
+      <c r="W139" s="66"/>
+      <c r="X139" s="66"/>
+      <c r="Y139" s="66"/>
+      <c r="Z139" s="66"/>
+      <c r="AA139" s="66"/>
+      <c r="AB139" s="66"/>
+      <c r="AC139" s="66"/>
+      <c r="AD139" s="66"/>
+      <c r="AE139" s="66"/>
+      <c r="AF139" s="66"/>
+      <c r="AG139" s="66"/>
+      <c r="AH139" s="66"/>
+      <c r="AI139" s="66"/>
+      <c r="AJ139" s="66"/>
+      <c r="AK139" s="66"/>
+      <c r="AL139" s="66"/>
+      <c r="AM139" s="66"/>
+      <c r="AN139" s="66"/>
+      <c r="AO139" s="66"/>
+      <c r="AP139" s="66"/>
+      <c r="AQ139" s="66"/>
+      <c r="AR139" s="66"/>
+      <c r="AS139" s="66"/>
+      <c r="AT139" s="66"/>
+      <c r="AU139" s="66"/>
+      <c r="AV139" s="66"/>
     </row>
     <row r="140" customFormat="1" ht="15.75" spans="1:10">
       <c r="A140" s="51"/>
@@ -8668,8 +8695,30 @@
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
       <c r="G146" s="9"/>
-      <c r="H146" s="11"/>
+      <c r="H146" s="10"/>
       <c r="J146" s="10"/>
+    </row>
+    <row r="147" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A147" s="51"/>
+      <c r="B147" s="51"/>
+      <c r="C147" s="47"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="10"/>
+      <c r="J147" s="10"/>
+    </row>
+    <row r="148" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A148" s="51"/>
+      <c r="B148" s="51"/>
+      <c r="C148" s="47"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="11"/>
+      <c r="J148" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8816,15 +8865,15 @@
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
       <c r="A2" s="16" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -8832,15 +8881,15 @@
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="15"/>
       <c r="B3" s="15" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -8848,19 +8897,19 @@
     <row r="4" spans="1:8">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="15"/>
@@ -8868,52 +8917,52 @@
     <row r="5" spans="1:8">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="18" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="15"/>
       <c r="B6" s="15" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -8921,65 +8970,65 @@
     <row r="8" spans="1:8">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="18" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -8997,15 +9046,15 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="16" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -9013,15 +9062,15 @@
     <row r="14" spans="1:8">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -9029,19 +9078,19 @@
     <row r="15" spans="1:8">
       <c r="A15" s="15"/>
       <c r="B15" s="15" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C15" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D15" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="15"/>
@@ -9049,52 +9098,52 @@
     <row r="16" spans="1:8">
       <c r="A16" s="15"/>
       <c r="B16" s="15" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="18" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -9102,65 +9151,65 @@
     <row r="19" spans="1:8">
       <c r="A19" s="15"/>
       <c r="B19" s="15" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="18" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="15"/>
       <c r="B20" s="15" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="15"/>
       <c r="B21" s="15" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="15"/>
       <c r="B22" s="15" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -9178,15 +9227,15 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="16" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -9194,15 +9243,15 @@
     <row r="25" spans="1:8">
       <c r="A25" s="15"/>
       <c r="B25" s="15" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -9210,19 +9259,19 @@
     <row r="26" spans="1:8">
       <c r="A26" s="15"/>
       <c r="B26" s="15" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C26" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D26" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="15"/>
@@ -9230,52 +9279,52 @@
     <row r="27" spans="1:8">
       <c r="A27" s="15"/>
       <c r="B27" s="15" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="18" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="15"/>
       <c r="B28" s="15" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="15"/>
       <c r="B29" s="15" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -9283,65 +9332,65 @@
     <row r="30" spans="1:8">
       <c r="A30" s="15"/>
       <c r="B30" s="15" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="18" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="15"/>
       <c r="B31" s="15" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="15"/>
       <c r="B32" s="15" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="15" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="15"/>
       <c r="B33" s="15" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
@@ -12289,7 +12338,7 @@
   <sheetPr/>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -12316,52 +12365,52 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="15.75" spans="1:16">
       <c r="A1" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:16">
@@ -12369,49 +12418,49 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E2" s="72" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F2" s="72" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G2" s="72" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H2" s="72" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I2" s="72" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="J2" s="72" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L2" s="72" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M2" s="72" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:16">
@@ -12419,49 +12468,49 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E3" s="72" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F3" s="72" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G3" s="72" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H3" s="72" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="I3" s="72" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="J3" s="72" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K3" s="72" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L3" s="72" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M3" s="72" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:15">
@@ -12469,40 +12518,40 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E4" s="72" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G4" s="72" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H4" s="72" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="I4" s="72" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L4" s="72" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M4" s="72" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O4" s="10"/>
     </row>
@@ -12512,35 +12561,35 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P5" s="10"/>
     </row>
@@ -12549,10 +12598,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D6" s="10"/>
       <c r="O6" s="11"/>
@@ -12563,10 +12612,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D7" s="10"/>
       <c r="O7" s="11"/>
@@ -12577,10 +12626,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D8" s="10"/>
       <c r="O8" s="11"/>
@@ -12591,10 +12640,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D9" s="10"/>
       <c r="O9" s="11"/>
@@ -12605,10 +12654,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D10" s="10"/>
       <c r="O10" s="11"/>
@@ -12619,10 +12668,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D11" s="10"/>
       <c r="O11" s="11"/>
@@ -12633,10 +12682,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D12" s="10"/>
       <c r="O12" s="11"/>
@@ -12647,10 +12696,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D13" s="10"/>
       <c r="O13" s="11"/>
@@ -12661,10 +12710,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D14" s="10"/>
       <c r="O14" s="11"/>
@@ -12675,10 +12724,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D15" s="10"/>
       <c r="O15" s="11"/>
@@ -12689,10 +12738,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D16" s="10"/>
       <c r="P16" s="10"/>
@@ -12720,7 +12769,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -12737,25 +12786,25 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="15.75" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:7">
@@ -12763,22 +12812,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F2" s="74" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G2" s="74" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:7">
@@ -12786,84 +12835,84 @@
         <v>2</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="F3" s="74" t="s">
         <v>449</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="G3" s="74" t="s">
         <v>450</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F3" s="74" t="s">
-        <v>447</v>
-      </c>
-      <c r="G3" s="74" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F4" s="74" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G4" s="74" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" ht="21" customHeight="1" spans="1:7">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F5" s="74" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G5" s="74" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" ht="16" customHeight="1" spans="1:7">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F6" s="74" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G6" s="74" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:4">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:4">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="D8" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:2">
@@ -12931,19 +12980,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:5">
